--- a/data/pca/factorExposure/factorExposure_2011-07-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,39 +747,63 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.02244582677472834</v>
+        <v>0.01870796305914542</v>
       </c>
       <c r="C2">
-        <v>-0.00421795735978515</v>
+        <v>0.001948369257077445</v>
       </c>
       <c r="D2">
-        <v>0.05185802794873546</v>
+        <v>-0.003350137916516522</v>
       </c>
       <c r="E2">
-        <v>-0.03107541683534067</v>
+        <v>0.03797815172726615</v>
       </c>
       <c r="F2">
-        <v>0.008113842500332006</v>
+        <v>-0.006089767384702602</v>
       </c>
       <c r="G2">
-        <v>0.05264617097928587</v>
+        <v>0.02702881330032611</v>
       </c>
       <c r="H2">
-        <v>-0.01744243053415231</v>
+        <v>-0.01816826264181487</v>
       </c>
       <c r="I2">
-        <v>0.03470090946953083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.02283334158421712</v>
+      </c>
+      <c r="J2">
+        <v>0.05482373681517755</v>
+      </c>
+      <c r="K2">
+        <v>0.006917379755881514</v>
+      </c>
+      <c r="L2">
+        <v>-0.04867276997543999</v>
+      </c>
+      <c r="M2">
+        <v>0.04919186350016731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,39 +829,63 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.06933604699204082</v>
+        <v>0.1060260555021668</v>
       </c>
       <c r="C4">
-        <v>0.05781874440101101</v>
+        <v>-0.0769542638022619</v>
       </c>
       <c r="D4">
-        <v>0.03729558736068071</v>
+        <v>-0.01984717861547926</v>
       </c>
       <c r="E4">
-        <v>-0.04681987185064174</v>
+        <v>0.04965635120478035</v>
       </c>
       <c r="F4">
-        <v>0.02974775380354195</v>
+        <v>-0.09814376261302332</v>
       </c>
       <c r="G4">
-        <v>-0.01355843730195455</v>
+        <v>-0.0189296487802709</v>
       </c>
       <c r="H4">
-        <v>0.005937627774919939</v>
+        <v>0.06532609004984492</v>
       </c>
       <c r="I4">
-        <v>0.007810509314565652</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>-0.03343129587296531</v>
+      </c>
+      <c r="J4">
+        <v>0.02463907270501393</v>
+      </c>
+      <c r="K4">
+        <v>-0.06686875082234092</v>
+      </c>
+      <c r="L4">
+        <v>0.06881069773931815</v>
+      </c>
+      <c r="M4">
+        <v>0.01359555525856015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -851,329 +911,473 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1251246728363032</v>
+        <v>0.1303201007557801</v>
       </c>
       <c r="C6">
-        <v>0.0281903498817567</v>
+        <v>-0.05320668122833377</v>
       </c>
       <c r="D6">
-        <v>0.06397112484423231</v>
+        <v>-0.001287353636577152</v>
       </c>
       <c r="E6">
-        <v>-0.1059816781638051</v>
+        <v>0.03459353446943419</v>
       </c>
       <c r="F6">
-        <v>-0.03518943350156144</v>
+        <v>-0.04027368947746125</v>
       </c>
       <c r="G6">
-        <v>-0.09848171830735741</v>
+        <v>-0.1583995220601499</v>
       </c>
       <c r="H6">
-        <v>-0.1203665331044849</v>
+        <v>-0.06731911190238908</v>
       </c>
       <c r="I6">
-        <v>-0.2586150726176655</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.1191046972325306</v>
+      </c>
+      <c r="J6">
+        <v>-0.01576037176371754</v>
+      </c>
+      <c r="K6">
+        <v>-0.4037388445199295</v>
+      </c>
+      <c r="L6">
+        <v>-0.1330038417123777</v>
+      </c>
+      <c r="M6">
+        <v>-0.07600501276533154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.06526102845497131</v>
+        <v>0.07046115584204064</v>
       </c>
       <c r="C7">
-        <v>0.05279474362546687</v>
+        <v>-0.07409406314783523</v>
       </c>
       <c r="D7">
-        <v>0.05543468847759728</v>
+        <v>-0.003974488184437478</v>
       </c>
       <c r="E7">
-        <v>-0.03427031507933456</v>
+        <v>0.04523482408758706</v>
       </c>
       <c r="F7">
-        <v>0.001008506339674373</v>
+        <v>-0.0166737158669639</v>
       </c>
       <c r="G7">
-        <v>-0.04198531381175889</v>
+        <v>-0.004161280728894815</v>
       </c>
       <c r="H7">
-        <v>-0.009907302090888498</v>
+        <v>0.05299056811379642</v>
       </c>
       <c r="I7">
-        <v>0.05054637267577242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.0266093128591015</v>
+      </c>
+      <c r="J7">
+        <v>-0.00376625349220124</v>
+      </c>
+      <c r="K7">
+        <v>0.03396691988071388</v>
+      </c>
+      <c r="L7">
+        <v>0.09070546862367455</v>
+      </c>
+      <c r="M7">
+        <v>0.01070606025884689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.02484438666171796</v>
+        <v>0.03496748393474359</v>
       </c>
       <c r="C8">
-        <v>0.01215173200865045</v>
+        <v>-0.0100646022793577</v>
       </c>
       <c r="D8">
-        <v>0.03504014760432191</v>
+        <v>-0.01663320267763731</v>
       </c>
       <c r="E8">
-        <v>-0.05622228515184048</v>
+        <v>0.05000529038356353</v>
       </c>
       <c r="F8">
-        <v>-0.04089426978646303</v>
+        <v>-0.1001183690875348</v>
       </c>
       <c r="G8">
-        <v>0.01690734939550716</v>
+        <v>-0.014787117240938</v>
       </c>
       <c r="H8">
-        <v>-0.02497386876648602</v>
+        <v>0.04282258592999004</v>
       </c>
       <c r="I8">
-        <v>0.04824696869043155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.01771762051191654</v>
+      </c>
+      <c r="J8">
+        <v>0.05623332509378073</v>
+      </c>
+      <c r="K8">
+        <v>-0.05220231873778353</v>
+      </c>
+      <c r="L8">
+        <v>0.05590788509473023</v>
+      </c>
+      <c r="M8">
+        <v>-0.01106473465745822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.07146970033453848</v>
+        <v>0.08436162295941212</v>
       </c>
       <c r="C9">
-        <v>0.07560079960714453</v>
+        <v>-0.06772305939273127</v>
       </c>
       <c r="D9">
-        <v>0.04222678136084104</v>
+        <v>-0.001556111061988397</v>
       </c>
       <c r="E9">
-        <v>-0.03125666526991353</v>
+        <v>0.03218427140914339</v>
       </c>
       <c r="F9">
-        <v>0.02164351429545573</v>
+        <v>-0.09835750611976168</v>
       </c>
       <c r="G9">
-        <v>0.0002120334908213776</v>
+        <v>-0.009577661706309495</v>
       </c>
       <c r="H9">
-        <v>0.007639953181367715</v>
+        <v>0.06456134970025849</v>
       </c>
       <c r="I9">
-        <v>0.02313629896400343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.04087739211445112</v>
+      </c>
+      <c r="J9">
+        <v>0.01128320751027237</v>
+      </c>
+      <c r="K9">
+        <v>-0.03294140824889921</v>
+      </c>
+      <c r="L9">
+        <v>0.03637864828556388</v>
+      </c>
+      <c r="M9">
+        <v>-0.009065488724495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.06445111851582846</v>
+        <v>0.1068057888796378</v>
       </c>
       <c r="C10">
-        <v>-0.1384097246752566</v>
+        <v>0.169961180042713</v>
       </c>
       <c r="D10">
-        <v>0.0566789443047542</v>
+        <v>-0.009368755480176088</v>
       </c>
       <c r="E10">
-        <v>-0.03246183939489443</v>
+        <v>0.04954186930229993</v>
       </c>
       <c r="F10">
-        <v>-0.03429838063635419</v>
+        <v>0.01409445769652307</v>
       </c>
       <c r="G10">
-        <v>-0.04036490189972846</v>
+        <v>-0.01302885053785997</v>
       </c>
       <c r="H10">
-        <v>-0.03728414043683933</v>
+        <v>5.411140727396927e-05</v>
       </c>
       <c r="I10">
-        <v>-0.01087507951394246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.01368536290151502</v>
+      </c>
+      <c r="J10">
+        <v>-0.04509722491530731</v>
+      </c>
+      <c r="K10">
+        <v>0.06548802844811197</v>
+      </c>
+      <c r="L10">
+        <v>-0.01217591130988749</v>
+      </c>
+      <c r="M10">
+        <v>-0.04225147761287549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.06387338681259876</v>
+        <v>0.0664577475162931</v>
       </c>
       <c r="C11">
-        <v>0.08858020654481592</v>
+        <v>-0.06986909346958481</v>
       </c>
       <c r="D11">
-        <v>0.03676816550915774</v>
+        <v>0.03087685959079037</v>
       </c>
       <c r="E11">
-        <v>-0.005502331771093417</v>
+        <v>0.01424376463993983</v>
       </c>
       <c r="F11">
-        <v>-0.002840189569450623</v>
+        <v>-0.1055464794619486</v>
       </c>
       <c r="G11">
-        <v>0.04844564861211351</v>
+        <v>0.01703271013881335</v>
       </c>
       <c r="H11">
-        <v>0.02280878464208152</v>
+        <v>0.04355641837521269</v>
       </c>
       <c r="I11">
-        <v>0.0760418534689071</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.03380237604360774</v>
+      </c>
+      <c r="J11">
+        <v>0.02255133543399672</v>
+      </c>
+      <c r="K11">
+        <v>0.0930291035099267</v>
+      </c>
+      <c r="L11">
+        <v>-0.01556601252096024</v>
+      </c>
+      <c r="M11">
+        <v>-0.06162079182523678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.057020504671162</v>
+        <v>0.07085545005988657</v>
       </c>
       <c r="C12">
-        <v>0.0544067033895117</v>
+        <v>-0.06296188556802285</v>
       </c>
       <c r="D12">
-        <v>0.01370159362786621</v>
+        <v>0.03056054686855019</v>
       </c>
       <c r="E12">
-        <v>-0.01539112184502421</v>
+        <v>0.004983776976309451</v>
       </c>
       <c r="F12">
-        <v>0.01030311611256643</v>
+        <v>-0.1181246250554114</v>
       </c>
       <c r="G12">
-        <v>-0.009816723530843124</v>
+        <v>0.01853283661371828</v>
       </c>
       <c r="H12">
-        <v>0.01651228456705455</v>
+        <v>0.03650734053712695</v>
       </c>
       <c r="I12">
-        <v>0.08205456921193108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.05609378322130466</v>
+      </c>
+      <c r="J12">
+        <v>0.05385206510526479</v>
+      </c>
+      <c r="K12">
+        <v>0.07132899880623102</v>
+      </c>
+      <c r="L12">
+        <v>0.01349862487937144</v>
+      </c>
+      <c r="M12">
+        <v>-0.1052917629455893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05413165480262169</v>
+        <v>0.04649097634006524</v>
       </c>
       <c r="C13">
-        <v>0.01909454158104684</v>
+        <v>-0.03378696029127622</v>
       </c>
       <c r="D13">
-        <v>0.009848443100255302</v>
+        <v>-0.02103244054611116</v>
       </c>
       <c r="E13">
-        <v>-0.01098115146850081</v>
+        <v>0.009791754403325574</v>
       </c>
       <c r="F13">
-        <v>0.03487743838241707</v>
+        <v>-0.04489583148767973</v>
       </c>
       <c r="G13">
-        <v>0.02831137295490321</v>
+        <v>0.02209658102547377</v>
       </c>
       <c r="H13">
-        <v>0.02933913511311061</v>
+        <v>0.03752918664466158</v>
       </c>
       <c r="I13">
-        <v>0.03353275452657338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.01597199004136592</v>
+      </c>
+      <c r="J13">
+        <v>0.005501613710196578</v>
+      </c>
+      <c r="K13">
+        <v>-0.02578174815291006</v>
+      </c>
+      <c r="L13">
+        <v>0.1002776953139543</v>
+      </c>
+      <c r="M13">
+        <v>-0.007894350718448054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.04021121027823168</v>
+        <v>0.04613624719705376</v>
       </c>
       <c r="C14">
-        <v>0.0259169428437801</v>
+        <v>-0.02779503734133969</v>
       </c>
       <c r="D14">
-        <v>0.02293022160030204</v>
+        <v>0.008695639968936587</v>
       </c>
       <c r="E14">
-        <v>0.006455024018763282</v>
+        <v>0.01857444635441909</v>
       </c>
       <c r="F14">
-        <v>0.02256790444030064</v>
+        <v>-0.04459834428416306</v>
       </c>
       <c r="G14">
-        <v>-0.02615382705486181</v>
+        <v>0.01816772641371349</v>
       </c>
       <c r="H14">
-        <v>-0.07115388836586631</v>
+        <v>0.07144034019347557</v>
       </c>
       <c r="I14">
-        <v>-0.04170575269415714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.01837372720951885</v>
+      </c>
+      <c r="J14">
+        <v>-0.02679583194677706</v>
+      </c>
+      <c r="K14">
+        <v>-0.05720450266709327</v>
+      </c>
+      <c r="L14">
+        <v>0.05749383599831329</v>
+      </c>
+      <c r="M14">
+        <v>0.02658268083397763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03794048596728154</v>
+        <v>0.03103074699249434</v>
       </c>
       <c r="C15">
-        <v>-0.003478875378764948</v>
+        <v>-0.009045522815944557</v>
       </c>
       <c r="D15">
-        <v>-0.00446246087464006</v>
+        <v>-0.05965687327254596</v>
       </c>
       <c r="E15">
-        <v>-0.02227926494021467</v>
+        <v>0.006003383626104948</v>
       </c>
       <c r="F15">
-        <v>0.01599293365889354</v>
+        <v>-0.002225870993587108</v>
       </c>
       <c r="G15">
-        <v>-0.00830670506481751</v>
+        <v>-0.03779620264549663</v>
       </c>
       <c r="H15">
-        <v>0.009203001886125314</v>
+        <v>0.03608026406737851</v>
       </c>
       <c r="I15">
-        <v>-0.01166612397435694</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.02340198279423805</v>
+      </c>
+      <c r="J15">
+        <v>-0.01948044847478601</v>
+      </c>
+      <c r="K15">
+        <v>-0.05436471385973436</v>
+      </c>
+      <c r="L15">
+        <v>0.04377500978268946</v>
+      </c>
+      <c r="M15">
+        <v>-0.005014392079492327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.049043582859705</v>
+        <v>0.07069405390921371</v>
       </c>
       <c r="C16">
-        <v>0.0870727941122701</v>
+        <v>-0.07886710826173655</v>
       </c>
       <c r="D16">
-        <v>0.028279532456312</v>
+        <v>0.02087645714690193</v>
       </c>
       <c r="E16">
-        <v>-0.02647169210323656</v>
+        <v>0.01414345673980009</v>
       </c>
       <c r="F16">
-        <v>0.02810821294720144</v>
+        <v>-0.1088111938433359</v>
       </c>
       <c r="G16">
-        <v>0.02223062187463945</v>
+        <v>0.02755460453377279</v>
       </c>
       <c r="H16">
-        <v>0.0009252498150309202</v>
+        <v>0.05066634052614193</v>
       </c>
       <c r="I16">
-        <v>0.1021015804713337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>-0.05828703101393914</v>
+      </c>
+      <c r="J16">
+        <v>0.0407276663253887</v>
+      </c>
+      <c r="K16">
+        <v>0.08089562643160246</v>
+      </c>
+      <c r="L16">
+        <v>0.01232175138366322</v>
+      </c>
+      <c r="M16">
+        <v>-0.04733600694603763</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1199,10 +1403,22 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,10 +1444,22 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1257,213 +1485,309 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.03861326041747892</v>
+        <v>0.04315819074325131</v>
       </c>
       <c r="C20">
-        <v>0.04272511751890719</v>
+        <v>-0.03042439591453117</v>
       </c>
       <c r="D20">
-        <v>0.01830854581149766</v>
+        <v>-0.02321434531312945</v>
       </c>
       <c r="E20">
-        <v>-0.01427446443186653</v>
+        <v>0.02193118361658959</v>
       </c>
       <c r="F20">
-        <v>0.03969074446948655</v>
+        <v>-0.04740251285846066</v>
       </c>
       <c r="G20">
-        <v>0.01217044389831354</v>
+        <v>0.02300054679141914</v>
       </c>
       <c r="H20">
-        <v>-0.0001067646416845676</v>
+        <v>0.04898902423570239</v>
       </c>
       <c r="I20">
-        <v>0.04034651234579833</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>-0.05032055847833457</v>
+      </c>
+      <c r="J20">
+        <v>0.007467466161918865</v>
+      </c>
+      <c r="K20">
+        <v>-0.01973735780374208</v>
+      </c>
+      <c r="L20">
+        <v>0.06292866596591179</v>
+      </c>
+      <c r="M20">
+        <v>-0.03297050121718638</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.006682608230514942</v>
+        <v>0.02445989674621927</v>
       </c>
       <c r="C21">
-        <v>0.00958226515708977</v>
+        <v>-0.01786083417685144</v>
       </c>
       <c r="D21">
-        <v>-0.002340721879143709</v>
+        <v>-0.01749548315113029</v>
       </c>
       <c r="E21">
-        <v>-0.0715619399627429</v>
+        <v>0.01662617575133545</v>
       </c>
       <c r="F21">
-        <v>-0.06284290001284523</v>
+        <v>-0.04882795762787087</v>
       </c>
       <c r="G21">
-        <v>-0.07247919594406312</v>
+        <v>-0.09828814135231706</v>
       </c>
       <c r="H21">
-        <v>0.01350597858662077</v>
+        <v>0.006786116222841408</v>
       </c>
       <c r="I21">
-        <v>-0.05847602422616759</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>-0.04848567498043233</v>
+      </c>
+      <c r="J21">
+        <v>-0.04071328333134912</v>
+      </c>
+      <c r="K21">
+        <v>-0.04334372961154762</v>
+      </c>
+      <c r="L21">
+        <v>0.07925741313930745</v>
+      </c>
+      <c r="M21">
+        <v>-0.01913778191628215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01761314960647802</v>
+        <v>0.04203119492325399</v>
       </c>
       <c r="C22">
-        <v>0.04680870813141067</v>
+        <v>-0.02807277840854874</v>
       </c>
       <c r="D22">
-        <v>-0.1390624444028195</v>
+        <v>-0.6550743161890816</v>
       </c>
       <c r="E22">
-        <v>-0.4850794983867447</v>
+        <v>0.05217776312689627</v>
       </c>
       <c r="F22">
-        <v>0.1681473499925265</v>
+        <v>0.07390060470164157</v>
       </c>
       <c r="G22">
-        <v>-0.09494028710208689</v>
+        <v>0.06997047149883974</v>
       </c>
       <c r="H22">
-        <v>0.2767726413634673</v>
+        <v>-0.06561375924701388</v>
       </c>
       <c r="I22">
-        <v>0.000559229854646338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>-0.08646820357203772</v>
+      </c>
+      <c r="J22">
+        <v>-0.07680699729345146</v>
+      </c>
+      <c r="K22">
+        <v>0.06028341163876306</v>
+      </c>
+      <c r="L22">
+        <v>-0.02651232672700713</v>
+      </c>
+      <c r="M22">
+        <v>0.04179980563100834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.01853366106782557</v>
+        <v>0.04273515092110142</v>
       </c>
       <c r="C23">
-        <v>0.04548300440054264</v>
+        <v>-0.0283221678737779</v>
       </c>
       <c r="D23">
-        <v>-0.1386303239276014</v>
+        <v>-0.6566961626342057</v>
       </c>
       <c r="E23">
-        <v>-0.48636904878967</v>
+        <v>0.05319126244529492</v>
       </c>
       <c r="F23">
-        <v>0.1645073348024323</v>
+        <v>0.06908936515135283</v>
       </c>
       <c r="G23">
-        <v>-0.09361334072663532</v>
+        <v>0.07027618591402084</v>
       </c>
       <c r="H23">
-        <v>0.2741815694739725</v>
+        <v>-0.06670779130557315</v>
       </c>
       <c r="I23">
-        <v>-0.0008508223369826359</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>-0.08577808248373649</v>
+      </c>
+      <c r="J23">
+        <v>-0.07594549240127298</v>
+      </c>
+      <c r="K23">
+        <v>0.05575436402350033</v>
+      </c>
+      <c r="L23">
+        <v>-0.03064836491421145</v>
+      </c>
+      <c r="M23">
+        <v>0.04272136527042054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.06808420789907087</v>
+        <v>0.07657697082784642</v>
       </c>
       <c r="C24">
-        <v>0.0811912716311035</v>
+        <v>-0.07604173708812843</v>
       </c>
       <c r="D24">
-        <v>0.04421259829384753</v>
+        <v>0.01789985599076535</v>
       </c>
       <c r="E24">
-        <v>-0.03751413153548361</v>
+        <v>0.01960413064480416</v>
       </c>
       <c r="F24">
-        <v>-0.005421459310256779</v>
+        <v>-0.1120060034904726</v>
       </c>
       <c r="G24">
-        <v>0.02831034796295473</v>
+        <v>0.01736719738517121</v>
       </c>
       <c r="H24">
-        <v>0.007508344301270259</v>
+        <v>0.03619999587338397</v>
       </c>
       <c r="I24">
-        <v>0.06082852768458136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>-0.05335952226259868</v>
+      </c>
+      <c r="J24">
+        <v>0.02921588981851109</v>
+      </c>
+      <c r="K24">
+        <v>0.06822473480901368</v>
+      </c>
+      <c r="L24">
+        <v>-0.01856541761387688</v>
+      </c>
+      <c r="M24">
+        <v>-0.07127125210637432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06077853976379691</v>
+        <v>0.07311705250622724</v>
       </c>
       <c r="C25">
-        <v>0.04018848197549427</v>
+        <v>-0.04909503597803123</v>
       </c>
       <c r="D25">
-        <v>0.03638666040631214</v>
+        <v>0.03211202361628997</v>
       </c>
       <c r="E25">
-        <v>-0.04313017017973868</v>
+        <v>0.01729315391851128</v>
       </c>
       <c r="F25">
-        <v>0.01553704078910109</v>
+        <v>-0.1156190859784093</v>
       </c>
       <c r="G25">
-        <v>0.03388354577521102</v>
+        <v>0.03322983105493915</v>
       </c>
       <c r="H25">
-        <v>-0.02222887655907452</v>
+        <v>0.05424354477365775</v>
       </c>
       <c r="I25">
-        <v>0.04334176120930191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>-0.06107076357621267</v>
+      </c>
+      <c r="J25">
+        <v>0.04322270938544802</v>
+      </c>
+      <c r="K25">
+        <v>0.07159291167498387</v>
+      </c>
+      <c r="L25">
+        <v>-0.03804689736785451</v>
+      </c>
+      <c r="M25">
+        <v>-0.06407056512226848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.0343880908032294</v>
+        <v>0.04188024821601463</v>
       </c>
       <c r="C26">
-        <v>0.02511332137507724</v>
+        <v>-0.02257780361160357</v>
       </c>
       <c r="D26">
-        <v>0.03827539524682948</v>
+        <v>-0.01215884667026343</v>
       </c>
       <c r="E26">
-        <v>-0.0001189105333183794</v>
+        <v>0.002956226058302871</v>
       </c>
       <c r="F26">
-        <v>0.04346907769854985</v>
+        <v>-0.03514635059041243</v>
       </c>
       <c r="G26">
-        <v>-0.01994889489048579</v>
+        <v>0.0009824609398711992</v>
       </c>
       <c r="H26">
-        <v>0.0103560723797133</v>
+        <v>0.04675878172018668</v>
       </c>
       <c r="I26">
-        <v>0.02506665682808738</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>-0.01593573640752612</v>
+      </c>
+      <c r="J26">
+        <v>-0.07331163428083635</v>
+      </c>
+      <c r="K26">
+        <v>-0.04798864939049161</v>
+      </c>
+      <c r="L26">
+        <v>0.1335998314512447</v>
+      </c>
+      <c r="M26">
+        <v>0.03916901879489029</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1489,271 +1813,391 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1214244552131226</v>
+        <v>0.1429896872443508</v>
       </c>
       <c r="C28">
-        <v>-0.2961260214669608</v>
+        <v>0.2879331207981677</v>
       </c>
       <c r="D28">
-        <v>0.02552905174128885</v>
+        <v>0.008361394932935641</v>
       </c>
       <c r="E28">
-        <v>0.008084338626774219</v>
+        <v>0.02469786065018493</v>
       </c>
       <c r="F28">
-        <v>-0.009156171808222167</v>
+        <v>0.002911910175686634</v>
       </c>
       <c r="G28">
-        <v>-0.06947875654810651</v>
+        <v>-0.01776890160439308</v>
       </c>
       <c r="H28">
-        <v>-0.02108886734305239</v>
+        <v>-0.01370123801808121</v>
       </c>
       <c r="I28">
-        <v>0.07706265526433043</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>-0.0167661532650257</v>
+      </c>
+      <c r="J28">
+        <v>0.01241587106162298</v>
+      </c>
+      <c r="K28">
+        <v>-0.006697725100733059</v>
+      </c>
+      <c r="L28">
+        <v>0.04941689128332349</v>
+      </c>
+      <c r="M28">
+        <v>0.03201348877569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.04679816861717919</v>
+        <v>0.04478542267930147</v>
       </c>
       <c r="C29">
-        <v>0.01579210562289807</v>
+        <v>-0.02284883052623479</v>
       </c>
       <c r="D29">
-        <v>0.01143352839587242</v>
+        <v>-0.0009918400114577108</v>
       </c>
       <c r="E29">
-        <v>-0.02467079022653886</v>
+        <v>0.0215952943534988</v>
       </c>
       <c r="F29">
-        <v>0.0204691275147582</v>
+        <v>-0.04614023603556605</v>
       </c>
       <c r="G29">
-        <v>-0.006339828838972443</v>
+        <v>0.03476240950463049</v>
       </c>
       <c r="H29">
-        <v>-0.02943425795534177</v>
+        <v>0.05753034154501759</v>
       </c>
       <c r="I29">
-        <v>-0.002332492369786154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>-0.01797894604071808</v>
+      </c>
+      <c r="J29">
+        <v>-0.02749662578630621</v>
+      </c>
+      <c r="K29">
+        <v>-0.04224540147487868</v>
+      </c>
+      <c r="L29">
+        <v>0.04101934263231181</v>
+      </c>
+      <c r="M29">
+        <v>0.01766174659766191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1176926057734129</v>
+        <v>0.09940167537066245</v>
       </c>
       <c r="C30">
-        <v>0.07564419151232107</v>
+        <v>-0.0649650876662196</v>
       </c>
       <c r="D30">
-        <v>0.07131089557741185</v>
+        <v>0.001042849956317786</v>
       </c>
       <c r="E30">
-        <v>-0.05467669086555459</v>
+        <v>0.03398115613839173</v>
       </c>
       <c r="F30">
-        <v>0.01328152912361094</v>
+        <v>-0.1637757679898042</v>
       </c>
       <c r="G30">
-        <v>-0.03203209415659874</v>
+        <v>0.05357159876080324</v>
       </c>
       <c r="H30">
-        <v>-0.0104942353085137</v>
+        <v>0.006635855155308018</v>
       </c>
       <c r="I30">
-        <v>0.07318238554276751</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>-0.2744128456435821</v>
+      </c>
+      <c r="J30">
+        <v>-0.03670660748906207</v>
+      </c>
+      <c r="K30">
+        <v>0.0003044330641396401</v>
+      </c>
+      <c r="L30">
+        <v>0.2321673248292317</v>
+      </c>
+      <c r="M30">
+        <v>0.05290308425390382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04566128520411304</v>
+        <v>0.03468313436043619</v>
       </c>
       <c r="C31">
-        <v>0.02440257462188896</v>
+        <v>-0.04404945239931431</v>
       </c>
       <c r="D31">
-        <v>0.005428735460369669</v>
+        <v>-0.006061858967539738</v>
       </c>
       <c r="E31">
-        <v>0.003623377768243369</v>
+        <v>-0.002648455939632733</v>
       </c>
       <c r="F31">
-        <v>0.04779752653836919</v>
+        <v>-0.01385884792309452</v>
       </c>
       <c r="G31">
-        <v>-0.006402181940312523</v>
+        <v>0.02995805996831138</v>
       </c>
       <c r="H31">
-        <v>0.02147323545838941</v>
+        <v>0.05050233173692289</v>
       </c>
       <c r="I31">
-        <v>-0.001953883274198188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.008641797674874626</v>
+      </c>
+      <c r="J31">
+        <v>0.02489222562611376</v>
+      </c>
+      <c r="K31">
+        <v>-0.02064166389103626</v>
+      </c>
+      <c r="L31">
+        <v>0.02111154821171047</v>
+      </c>
+      <c r="M31">
+        <v>-0.01470710559035613</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.02165298180661079</v>
+        <v>0.04786917411289182</v>
       </c>
       <c r="C32">
-        <v>-0.003267053648837767</v>
+        <v>0.002827927987784546</v>
       </c>
       <c r="D32">
-        <v>-0.04853707409060104</v>
+        <v>-0.001351317939498502</v>
       </c>
       <c r="E32">
-        <v>-0.07411651170626841</v>
+        <v>-0.005939416708507316</v>
       </c>
       <c r="F32">
-        <v>0.02276664046820516</v>
+        <v>-0.08604179199031806</v>
       </c>
       <c r="G32">
-        <v>0.02749489259200307</v>
+        <v>-0.02830139888415148</v>
       </c>
       <c r="H32">
-        <v>0.04927279912243505</v>
+        <v>0.04105397930721275</v>
       </c>
       <c r="I32">
-        <v>0.09042369348304651</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.06468915212179027</v>
+      </c>
+      <c r="J32">
+        <v>0.03173346248169751</v>
+      </c>
+      <c r="K32">
+        <v>0.01454711831355005</v>
+      </c>
+      <c r="L32">
+        <v>0.06430579117042649</v>
+      </c>
+      <c r="M32">
+        <v>0.09613979841500919</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.100254079412182</v>
+        <v>0.09638601125675106</v>
       </c>
       <c r="C33">
-        <v>0.06022251475202554</v>
+        <v>-0.06579076289866724</v>
       </c>
       <c r="D33">
-        <v>0.008403028789643639</v>
+        <v>0.00797763789243908</v>
       </c>
       <c r="E33">
-        <v>-0.002718850911913175</v>
+        <v>-0.01561413921017921</v>
       </c>
       <c r="F33">
-        <v>0.04402429463402932</v>
+        <v>-0.06341962594082819</v>
       </c>
       <c r="G33">
-        <v>0.01918448023411122</v>
+        <v>0.03227612759675298</v>
       </c>
       <c r="H33">
-        <v>0.01989593463504431</v>
+        <v>0.05972426713083401</v>
       </c>
       <c r="I33">
-        <v>0.02867370085491131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>-0.02456849193634577</v>
+      </c>
+      <c r="J33">
+        <v>-0.03836457420057576</v>
+      </c>
+      <c r="K33">
+        <v>-0.02404994668762234</v>
+      </c>
+      <c r="L33">
+        <v>0.01958128862153626</v>
+      </c>
+      <c r="M33">
+        <v>-0.0355694305218711</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.04985820887574462</v>
+        <v>0.06314612548798781</v>
       </c>
       <c r="C34">
-        <v>0.07968309624919308</v>
+        <v>-0.06293264882974002</v>
       </c>
       <c r="D34">
-        <v>0.02424538339292639</v>
+        <v>0.02751938582836822</v>
       </c>
       <c r="E34">
-        <v>-0.04279257380970244</v>
+        <v>0.01207536344782359</v>
       </c>
       <c r="F34">
-        <v>0.01161016321924548</v>
+        <v>-0.09637829205890802</v>
       </c>
       <c r="G34">
-        <v>0.01738899489549129</v>
+        <v>0.01964605672544915</v>
       </c>
       <c r="H34">
-        <v>-0.00379722472795354</v>
+        <v>0.05344525944762351</v>
       </c>
       <c r="I34">
-        <v>0.05671083170903171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>-0.03845063514885627</v>
+      </c>
+      <c r="J34">
+        <v>0.02719907201113967</v>
+      </c>
+      <c r="K34">
+        <v>0.05285846474637777</v>
+      </c>
+      <c r="L34">
+        <v>-0.01099386877780766</v>
+      </c>
+      <c r="M34">
+        <v>-0.0735304425974692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.03625308116153424</v>
+        <v>0.02680060518493792</v>
       </c>
       <c r="C35">
-        <v>0.0287894579374326</v>
+        <v>-0.0233911502096458</v>
       </c>
       <c r="D35">
-        <v>0.009249509620009186</v>
+        <v>-0.002744357604621166</v>
       </c>
       <c r="E35">
-        <v>-0.0270279525784814</v>
+        <v>0.001815427148189313</v>
       </c>
       <c r="F35">
-        <v>0.03682967887878317</v>
+        <v>-0.01469064144844066</v>
       </c>
       <c r="G35">
-        <v>0.009854821822295403</v>
+        <v>0.02253956521895618</v>
       </c>
       <c r="H35">
-        <v>0.02704905438266201</v>
+        <v>0.04477635209654621</v>
       </c>
       <c r="I35">
-        <v>0.04347616913771565</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>-0.04581346332469476</v>
+      </c>
+      <c r="J35">
+        <v>-0.008606737642517253</v>
+      </c>
+      <c r="K35">
+        <v>0.02792905715169958</v>
+      </c>
+      <c r="L35">
+        <v>0.059147387565871</v>
+      </c>
+      <c r="M35">
+        <v>0.001731303499061943</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.02595103206129715</v>
+        <v>0.03010606849125566</v>
       </c>
       <c r="C36">
-        <v>0.01493508861802917</v>
+        <v>-0.01914278268838043</v>
       </c>
       <c r="D36">
-        <v>0.02907518213733165</v>
+        <v>-0.01219642422567524</v>
       </c>
       <c r="E36">
-        <v>-0.02290186812736568</v>
+        <v>0.01710702134131829</v>
       </c>
       <c r="F36">
-        <v>0.03221325594639551</v>
+        <v>-0.05513042214997051</v>
       </c>
       <c r="G36">
-        <v>0.004424907529094252</v>
+        <v>0.01307603985124042</v>
       </c>
       <c r="H36">
-        <v>0.0004577166653334507</v>
+        <v>0.0481295953822678</v>
       </c>
       <c r="I36">
-        <v>-0.004337071305991469</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>-0.03411509451296889</v>
+      </c>
+      <c r="J36">
+        <v>-0.02226709478483097</v>
+      </c>
+      <c r="K36">
+        <v>-0.02591314150918828</v>
+      </c>
+      <c r="L36">
+        <v>0.04417487499711253</v>
+      </c>
+      <c r="M36">
+        <v>-0.02596537097154709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1779,126 +2223,186 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04265766827117349</v>
+        <v>0.0321593980295977</v>
       </c>
       <c r="C38">
-        <v>0.03237006051847056</v>
+        <v>-0.0473486682821259</v>
       </c>
       <c r="D38">
-        <v>-0.0271493926640697</v>
+        <v>-0.02572330195210301</v>
       </c>
       <c r="E38">
-        <v>-0.03681219429174336</v>
+        <v>-0.001752247602460736</v>
       </c>
       <c r="F38">
-        <v>-0.001467225909956174</v>
+        <v>0.04351260031956319</v>
       </c>
       <c r="G38">
-        <v>0.004996989842506176</v>
+        <v>0.04687712726885922</v>
       </c>
       <c r="H38">
-        <v>0.04152534758834795</v>
+        <v>-0.04843810979277988</v>
       </c>
       <c r="I38">
-        <v>0.03912262449600289</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.02651848573133537</v>
+      </c>
+      <c r="J38">
+        <v>-0.1207174739311213</v>
+      </c>
+      <c r="K38">
+        <v>0.0166489275930684</v>
+      </c>
+      <c r="L38">
+        <v>0.0736533877779502</v>
+      </c>
+      <c r="M38">
+        <v>0.06523953823356389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09357715225267142</v>
+        <v>0.09710571508223709</v>
       </c>
       <c r="C39">
-        <v>0.1045460859468513</v>
+        <v>-0.08895772501439729</v>
       </c>
       <c r="D39">
-        <v>0.02050580246445908</v>
+        <v>0.080209128784883</v>
       </c>
       <c r="E39">
-        <v>-0.0292456657633544</v>
+        <v>-0.01485428237012091</v>
       </c>
       <c r="F39">
-        <v>-0.02237098368439339</v>
+        <v>-0.1472488805855313</v>
       </c>
       <c r="G39">
-        <v>0.02510747639259372</v>
+        <v>0.09454981235744435</v>
       </c>
       <c r="H39">
-        <v>0.00214098872547024</v>
+        <v>0.01350477423497761</v>
       </c>
       <c r="I39">
-        <v>0.1789320490422157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>-0.1354794001712904</v>
+      </c>
+      <c r="J39">
+        <v>0.1031280740407889</v>
+      </c>
+      <c r="K39">
+        <v>0.170970981088737</v>
+      </c>
+      <c r="L39">
+        <v>0.04241542559896104</v>
+      </c>
+      <c r="M39">
+        <v>0.01774694228483526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.05428263158743465</v>
+        <v>0.03796757585954489</v>
       </c>
       <c r="C40">
-        <v>0.0356498524463193</v>
+        <v>-0.05526855879921094</v>
       </c>
       <c r="D40">
-        <v>-0.03433557536363923</v>
+        <v>-0.05015309784158287</v>
       </c>
       <c r="E40">
-        <v>-0.1406515741220194</v>
+        <v>0.0002373930705472513</v>
       </c>
       <c r="F40">
-        <v>0.03949615999544795</v>
+        <v>-0.1262978999118436</v>
       </c>
       <c r="G40">
-        <v>0.02049258980386976</v>
+        <v>-0.05924119390854926</v>
       </c>
       <c r="H40">
-        <v>0.01452310162607985</v>
+        <v>0.01987932972556824</v>
       </c>
       <c r="I40">
-        <v>0.1749398249560668</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>-0.002982144180665211</v>
+      </c>
+      <c r="J40">
+        <v>-0.1207974262309523</v>
+      </c>
+      <c r="K40">
+        <v>0.05856422315765729</v>
+      </c>
+      <c r="L40">
+        <v>0.1184366455166279</v>
+      </c>
+      <c r="M40">
+        <v>0.01646300972875565</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04391064662057632</v>
+        <v>0.03603803242871527</v>
       </c>
       <c r="C41">
-        <v>0.05626524374824905</v>
+        <v>-0.03697409928634712</v>
       </c>
       <c r="D41">
-        <v>0.01041129730890772</v>
+        <v>0.01752630863421871</v>
       </c>
       <c r="E41">
-        <v>-0.0009822338165557795</v>
+        <v>-0.003886424400137606</v>
       </c>
       <c r="F41">
-        <v>0.0226710475314017</v>
+        <v>-0.01670519526408066</v>
       </c>
       <c r="G41">
-        <v>0.01804869921094885</v>
+        <v>0.0273746267956482</v>
       </c>
       <c r="H41">
-        <v>0.01733497264309784</v>
+        <v>0.005110898199548404</v>
       </c>
       <c r="I41">
-        <v>0.05185675469079617</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.01290555616478605</v>
+      </c>
+      <c r="J41">
+        <v>-0.01365529272206564</v>
+      </c>
+      <c r="K41">
+        <v>0.008640217013445702</v>
+      </c>
+      <c r="L41">
+        <v>0.04420048163923711</v>
+      </c>
+      <c r="M41">
+        <v>-0.02129759664024458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1924,68 +2428,104 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.05349795078528807</v>
+        <v>0.0503743728844107</v>
       </c>
       <c r="C43">
-        <v>0.04331570941908631</v>
+        <v>-0.04757440824932914</v>
       </c>
       <c r="D43">
-        <v>0.02706253490744074</v>
+        <v>-0.01269566250692341</v>
       </c>
       <c r="E43">
-        <v>-0.0189560848423678</v>
+        <v>0.0133278864484685</v>
       </c>
       <c r="F43">
-        <v>0.01386340596977978</v>
+        <v>-0.01500250511286631</v>
       </c>
       <c r="G43">
-        <v>-0.003221447194505261</v>
+        <v>0.0586856778261728</v>
       </c>
       <c r="H43">
-        <v>0.04839167201730469</v>
+        <v>-0.0003240742806403273</v>
       </c>
       <c r="I43">
-        <v>-0.001791504986481846</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>-0.002496153989632258</v>
+      </c>
+      <c r="J43">
+        <v>0.003863950274746448</v>
+      </c>
+      <c r="K43">
+        <v>0.009811453705029399</v>
+      </c>
+      <c r="L43">
+        <v>0.03212765112844736</v>
+      </c>
+      <c r="M43">
+        <v>-0.03108017261893463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.04965364995917977</v>
+        <v>0.08091515051376617</v>
       </c>
       <c r="C44">
-        <v>0.02617459214454828</v>
+        <v>-0.06007055938921758</v>
       </c>
       <c r="D44">
-        <v>0.05955955427682139</v>
+        <v>-0.06720881845420663</v>
       </c>
       <c r="E44">
-        <v>-0.1254294012646214</v>
+        <v>0.0917457303120895</v>
       </c>
       <c r="F44">
-        <v>0.007763622710150474</v>
+        <v>-0.1602517703791708</v>
       </c>
       <c r="G44">
-        <v>0.02670374938410468</v>
+        <v>0.009207991015483242</v>
       </c>
       <c r="H44">
-        <v>-0.03600951871921133</v>
+        <v>0.09221077919197088</v>
       </c>
       <c r="I44">
-        <v>0.1043653981696458</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>-0.04572916608465017</v>
+      </c>
+      <c r="J44">
+        <v>-0.02215387844746813</v>
+      </c>
+      <c r="K44">
+        <v>0.02539966196655785</v>
+      </c>
+      <c r="L44">
+        <v>0.06489473901806708</v>
+      </c>
+      <c r="M44">
+        <v>0.03978575565305383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2011,329 +2551,473 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.01925941271155505</v>
+        <v>0.03482434019600511</v>
       </c>
       <c r="C46">
-        <v>0.0389458729279137</v>
+        <v>-0.03846565613421598</v>
       </c>
       <c r="D46">
-        <v>0.01658747543363295</v>
+        <v>-0.04695625315292704</v>
       </c>
       <c r="E46">
-        <v>-0.04455860614311923</v>
+        <v>0.03742991596125144</v>
       </c>
       <c r="F46">
-        <v>0.003353518699780817</v>
+        <v>-0.02071834955700649</v>
       </c>
       <c r="G46">
-        <v>-0.001482239107982409</v>
+        <v>-0.009294055712695388</v>
       </c>
       <c r="H46">
-        <v>-0.01003468682012323</v>
+        <v>0.06344627612026087</v>
       </c>
       <c r="I46">
-        <v>0.02886291139879732</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.003438920781382509</v>
+      </c>
+      <c r="J46">
+        <v>-0.05008436210302281</v>
+      </c>
+      <c r="K46">
+        <v>-0.05519441967017202</v>
+      </c>
+      <c r="L46">
+        <v>0.05810978761456356</v>
+      </c>
+      <c r="M46">
+        <v>0.002691130154604636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.0262258027750546</v>
+        <v>0.04508974991157987</v>
       </c>
       <c r="C47">
-        <v>0.001452428768374125</v>
+        <v>-0.02754382140679975</v>
       </c>
       <c r="D47">
-        <v>-0.01023843206049722</v>
+        <v>-0.0212213814589928</v>
       </c>
       <c r="E47">
-        <v>-0.06972949614548822</v>
+        <v>0.008095415945121391</v>
       </c>
       <c r="F47">
-        <v>0.03071666781822284</v>
+        <v>-0.02905983289069305</v>
       </c>
       <c r="G47">
-        <v>0.01137474196428653</v>
+        <v>0.02841950510191184</v>
       </c>
       <c r="H47">
-        <v>-0.005456706342485944</v>
+        <v>0.02687806442371331</v>
       </c>
       <c r="I47">
-        <v>-0.04035911741473314</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>-0.02802638484926359</v>
+      </c>
+      <c r="J47">
+        <v>-0.03923172132244171</v>
+      </c>
+      <c r="K47">
+        <v>-0.02484521960538327</v>
+      </c>
+      <c r="L47">
+        <v>0.018612809662393</v>
+      </c>
+      <c r="M47">
+        <v>-0.04743653222357611</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03161867600336199</v>
+        <v>0.04342060794680345</v>
       </c>
       <c r="C48">
-        <v>0.02345609758241536</v>
+        <v>-0.01957237746549482</v>
       </c>
       <c r="D48">
-        <v>0.004935069944839966</v>
+        <v>-0.01267834361794652</v>
       </c>
       <c r="E48">
-        <v>-0.04604749599627801</v>
+        <v>0.003566874168300674</v>
       </c>
       <c r="F48">
-        <v>0.04145025658803681</v>
+        <v>-0.05901406570970625</v>
       </c>
       <c r="G48">
-        <v>-0.002788361006062961</v>
+        <v>-0.01951864105695292</v>
       </c>
       <c r="H48">
-        <v>0.03767283357827871</v>
+        <v>0.05771989131020169</v>
       </c>
       <c r="I48">
-        <v>0.008227828754298339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>-0.03056330174481345</v>
+      </c>
+      <c r="J48">
+        <v>-0.0001819161903702327</v>
+      </c>
+      <c r="K48">
+        <v>-7.709731867379603e-05</v>
+      </c>
+      <c r="L48">
+        <v>0.0549295334896007</v>
+      </c>
+      <c r="M48">
+        <v>-0.03197772932690059</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.1911733213264418</v>
+        <v>0.2234059295335505</v>
       </c>
       <c r="C49">
-        <v>0.1313624497497653</v>
+        <v>-0.08644094319277058</v>
       </c>
       <c r="D49">
-        <v>0.09017133014708008</v>
+        <v>0.06442512739675356</v>
       </c>
       <c r="E49">
-        <v>0.07566953116627081</v>
+        <v>0.02581222300872147</v>
       </c>
       <c r="F49">
-        <v>-0.1077046337077308</v>
+        <v>0.2285944337923148</v>
       </c>
       <c r="G49">
-        <v>-0.1530197495069684</v>
+        <v>-0.1592520533864062</v>
       </c>
       <c r="H49">
-        <v>-0.0593563162223267</v>
+        <v>-0.05180769101231562</v>
       </c>
       <c r="I49">
-        <v>-0.01408419461165864</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>-0.07897471706395988</v>
+      </c>
+      <c r="J49">
+        <v>-0.02768052294294812</v>
+      </c>
+      <c r="K49">
+        <v>0.2102973562502971</v>
+      </c>
+      <c r="L49">
+        <v>-0.1480699739325584</v>
+      </c>
+      <c r="M49">
+        <v>-0.01580292975495439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05401115852951349</v>
+        <v>0.04362667954253868</v>
       </c>
       <c r="C50">
-        <v>0.03216453149102786</v>
+        <v>-0.04237075528309252</v>
       </c>
       <c r="D50">
-        <v>0.008544841702920327</v>
+        <v>-0.001761965948721132</v>
       </c>
       <c r="E50">
-        <v>-0.02344740807566622</v>
+        <v>-0.007636544693678513</v>
       </c>
       <c r="F50">
-        <v>0.07022593383285011</v>
+        <v>-0.03801797919845876</v>
       </c>
       <c r="G50">
-        <v>0.01644620657610065</v>
+        <v>0.03853112428337276</v>
       </c>
       <c r="H50">
-        <v>-0.008809858290537053</v>
+        <v>0.04501993825117577</v>
       </c>
       <c r="I50">
-        <v>-0.01878085800248057</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>-0.01461012250726486</v>
+      </c>
+      <c r="J50">
+        <v>-0.01172837125462645</v>
+      </c>
+      <c r="K50">
+        <v>-0.05422614409058452</v>
+      </c>
+      <c r="L50">
+        <v>0.02634220476776974</v>
+      </c>
+      <c r="M50">
+        <v>0.03825479604786616</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02508459809598944</v>
+        <v>0.03060697449543995</v>
       </c>
       <c r="C51">
-        <v>0.0132694029984432</v>
+        <v>-0.005530535869224426</v>
       </c>
       <c r="D51">
-        <v>-0.00789541480548887</v>
+        <v>0.001635338951349257</v>
       </c>
       <c r="E51">
-        <v>-0.01456902379445677</v>
+        <v>0.01655113653324053</v>
       </c>
       <c r="F51">
-        <v>-0.02487863243763849</v>
+        <v>0.01728532617835673</v>
       </c>
       <c r="G51">
-        <v>-0.002321737894016265</v>
+        <v>0.003221082108947399</v>
       </c>
       <c r="H51">
-        <v>-0.01909259308338285</v>
+        <v>-0.02528861424666289</v>
       </c>
       <c r="I51">
-        <v>0.02599468851609878</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>-0.01088339240287285</v>
+      </c>
+      <c r="J51">
+        <v>0.03392384348831541</v>
+      </c>
+      <c r="K51">
+        <v>0.06344974822287797</v>
+      </c>
+      <c r="L51">
+        <v>-0.05567156816816415</v>
+      </c>
+      <c r="M51">
+        <v>-0.01801786245090934</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.009867560483272758</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.002997711302101199</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01502299239886</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.001772714794879047</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.004754587764677724</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.0004351719355411414</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>-0.0005041275113291503</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>-0.002863366758138882</v>
+      </c>
+      <c r="J52">
+        <v>0.02870986045901406</v>
+      </c>
+      <c r="K52">
+        <v>-0.004467972570975858</v>
+      </c>
+      <c r="L52">
+        <v>0.005298574977407424</v>
+      </c>
+      <c r="M52">
+        <v>0.01818453435178205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1670091253222578</v>
+        <v>0.1542973985728252</v>
       </c>
       <c r="C53">
-        <v>0.01726854747433067</v>
+        <v>-0.04600658468736844</v>
       </c>
       <c r="D53">
-        <v>0.03592534824631659</v>
+        <v>0.016892647507012</v>
       </c>
       <c r="E53">
-        <v>0.06272578996551724</v>
+        <v>-0.004856053634278624</v>
       </c>
       <c r="F53">
-        <v>0.1213295528397536</v>
+        <v>0.07303809989493872</v>
       </c>
       <c r="G53">
-        <v>0.2427369245869468</v>
+        <v>0.2094272584860593</v>
       </c>
       <c r="H53">
-        <v>0.03281133056440751</v>
+        <v>0.03636016973747565</v>
       </c>
       <c r="I53">
-        <v>-0.03551198154014638</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.1082408314941028</v>
+      </c>
+      <c r="J53">
+        <v>-0.02584667975282334</v>
+      </c>
+      <c r="K53">
+        <v>-0.09227329376735671</v>
+      </c>
+      <c r="L53">
+        <v>-0.06824566832787733</v>
+      </c>
+      <c r="M53">
+        <v>0.1017477468289124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.04793845126477592</v>
+        <v>0.05786051426409942</v>
       </c>
       <c r="C54">
-        <v>0.03410016869177838</v>
+        <v>-0.03286002282633112</v>
       </c>
       <c r="D54">
-        <v>0.03177675685768619</v>
+        <v>-0.02069377763317626</v>
       </c>
       <c r="E54">
-        <v>-0.03129650264481201</v>
+        <v>0.02713924356261254</v>
       </c>
       <c r="F54">
-        <v>0.02427254098788771</v>
+        <v>-0.1019617494888393</v>
       </c>
       <c r="G54">
-        <v>-0.001006769106712791</v>
+        <v>-0.02237380108557881</v>
       </c>
       <c r="H54">
-        <v>0.01717670091231736</v>
+        <v>0.07104279948978544</v>
       </c>
       <c r="I54">
-        <v>0.007438631931353802</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.0005129379882835942</v>
+      </c>
+      <c r="J54">
+        <v>-0.006586620751018729</v>
+      </c>
+      <c r="K54">
+        <v>-0.1037388296477623</v>
+      </c>
+      <c r="L54">
+        <v>0.09801850623635017</v>
+      </c>
+      <c r="M54">
+        <v>-0.02543780958254392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09102968327993774</v>
+        <v>0.08597068751982341</v>
       </c>
       <c r="C55">
-        <v>0.00462816269181986</v>
+        <v>-0.03659706267432903</v>
       </c>
       <c r="D55">
-        <v>0.02935001413363784</v>
+        <v>0.02653037674127107</v>
       </c>
       <c r="E55">
-        <v>0.002265051468652149</v>
+        <v>0.007615736972222943</v>
       </c>
       <c r="F55">
-        <v>0.1247147998384511</v>
+        <v>-0.00291199650721178</v>
       </c>
       <c r="G55">
-        <v>0.1965757655246679</v>
+        <v>0.1491442686345945</v>
       </c>
       <c r="H55">
-        <v>0.006863663065849975</v>
+        <v>0.04991290706041357</v>
       </c>
       <c r="I55">
-        <v>-0.03465756848527692</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.06525397158481361</v>
+      </c>
+      <c r="J55">
+        <v>-0.01803414051946532</v>
+      </c>
+      <c r="K55">
+        <v>-0.05371697928878474</v>
+      </c>
+      <c r="L55">
+        <v>-0.05028773108390849</v>
+      </c>
+      <c r="M55">
+        <v>0.0582619089960462</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1690269135409897</v>
+        <v>0.1483178772403331</v>
       </c>
       <c r="C56">
-        <v>0.01769755695580507</v>
+        <v>-0.06979324218956713</v>
       </c>
       <c r="D56">
-        <v>0.05692578382455429</v>
+        <v>0.03076592428689674</v>
       </c>
       <c r="E56">
-        <v>0.05627651654911563</v>
+        <v>0.008934614898506875</v>
       </c>
       <c r="F56">
-        <v>0.1092128210294059</v>
+        <v>0.03751352176546446</v>
       </c>
       <c r="G56">
-        <v>0.2156962594025669</v>
+        <v>0.2185439060524461</v>
       </c>
       <c r="H56">
-        <v>0.06796954502289143</v>
+        <v>0.01136699631065633</v>
       </c>
       <c r="I56">
-        <v>-0.06240480701473419</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.1342870095229025</v>
+      </c>
+      <c r="J56">
+        <v>-0.03260700305468002</v>
+      </c>
+      <c r="K56">
+        <v>-0.07130556359444336</v>
+      </c>
+      <c r="L56">
+        <v>-0.04588397442495306</v>
+      </c>
+      <c r="M56">
+        <v>0.06532650999351884</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2359,1112 +3043,1580 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.04446357487021713</v>
+        <v>0.03873527993474675</v>
       </c>
       <c r="C58">
-        <v>0.04249721281233756</v>
+        <v>-0.03073723550870381</v>
       </c>
       <c r="D58">
-        <v>0.02177446428681564</v>
+        <v>-0.08506034313087477</v>
       </c>
       <c r="E58">
-        <v>-0.3228779667055739</v>
+        <v>0.03406982332545225</v>
       </c>
       <c r="F58">
-        <v>0.04922612873723149</v>
+        <v>-0.03454590518455628</v>
       </c>
       <c r="G58">
-        <v>-0.1905198786398596</v>
+        <v>-0.04908585307624946</v>
       </c>
       <c r="H58">
-        <v>-0.05415419719474016</v>
+        <v>0.0670391448051563</v>
       </c>
       <c r="I58">
-        <v>-0.06336930283018889</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>-0.2854894600758758</v>
+      </c>
+      <c r="J58">
+        <v>0.2263817526147224</v>
+      </c>
+      <c r="K58">
+        <v>0.06457006999995867</v>
+      </c>
+      <c r="L58">
+        <v>0.01257517394245194</v>
+      </c>
+      <c r="M58">
+        <v>-0.3300391328837577</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2515534996052299</v>
+        <v>0.2286301003857367</v>
       </c>
       <c r="C59">
-        <v>-0.4096054357143091</v>
+        <v>0.3024270159865914</v>
       </c>
       <c r="D59">
-        <v>0.02199473746717912</v>
+        <v>0.03929115369211701</v>
       </c>
       <c r="E59">
-        <v>-0.02522356697780026</v>
+        <v>0.005364014387369701</v>
       </c>
       <c r="F59">
-        <v>-0.05107678021558606</v>
+        <v>-0.02647003485586955</v>
       </c>
       <c r="G59">
-        <v>0.06453733804371066</v>
+        <v>0.06020843271485946</v>
       </c>
       <c r="H59">
-        <v>0.03749020041718992</v>
+        <v>-0.02611764674651701</v>
       </c>
       <c r="I59">
-        <v>0.06145238551317088</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.1157613555004742</v>
+      </c>
+      <c r="J59">
+        <v>0.05825415102645577</v>
+      </c>
+      <c r="K59">
+        <v>0.03945948447317424</v>
+      </c>
+      <c r="L59">
+        <v>-0.03144190386659784</v>
+      </c>
+      <c r="M59">
+        <v>-0.008118462477797643</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2493693861421223</v>
+        <v>0.2430468210886916</v>
       </c>
       <c r="C60">
-        <v>0.07782994211014456</v>
+        <v>-0.1178088477086483</v>
       </c>
       <c r="D60">
-        <v>0.09188370896130003</v>
+        <v>0.06459378820448752</v>
       </c>
       <c r="E60">
-        <v>-0.02680659071844548</v>
+        <v>0.03785082039569935</v>
       </c>
       <c r="F60">
-        <v>-0.07143386505714042</v>
+        <v>0.1059188813260793</v>
       </c>
       <c r="G60">
-        <v>-0.03402238193929824</v>
+        <v>-0.03251366742756776</v>
       </c>
       <c r="H60">
-        <v>-0.04995476936513644</v>
+        <v>-0.1217428669944354</v>
       </c>
       <c r="I60">
-        <v>-0.1072129507193886</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>-0.002303533944684054</v>
+      </c>
+      <c r="J60">
+        <v>-0.0005654527117892901</v>
+      </c>
+      <c r="K60">
+        <v>-0.03494701937272164</v>
+      </c>
+      <c r="L60">
+        <v>-0.1932166802829159</v>
+      </c>
+      <c r="M60">
+        <v>-0.002564417492581087</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.07939163484648057</v>
+        <v>0.09093697022868846</v>
       </c>
       <c r="C61">
-        <v>0.05845848193135939</v>
+        <v>-0.06437770182856112</v>
       </c>
       <c r="D61">
-        <v>0.02372707440491049</v>
+        <v>0.04418470774503687</v>
       </c>
       <c r="E61">
-        <v>-0.00472465014747894</v>
+        <v>0.01446297159705473</v>
       </c>
       <c r="F61">
-        <v>0.0180126544108065</v>
+        <v>-0.1114591417080455</v>
       </c>
       <c r="G61">
-        <v>0.003685365861841817</v>
+        <v>0.07693076594666173</v>
       </c>
       <c r="H61">
-        <v>0.001049983211793912</v>
+        <v>0.03409242506333984</v>
       </c>
       <c r="I61">
-        <v>0.08940162965546847</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>-0.05556695637836973</v>
+      </c>
+      <c r="J61">
+        <v>0.03666009771961456</v>
+      </c>
+      <c r="K61">
+        <v>0.07009061917412204</v>
+      </c>
+      <c r="L61">
+        <v>0.04806755826109999</v>
+      </c>
+      <c r="M61">
+        <v>0.01220180348497348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1638127570903478</v>
+        <v>0.1457808377895599</v>
       </c>
       <c r="C62">
-        <v>0.05712636079454635</v>
+        <v>-0.07717492736844873</v>
       </c>
       <c r="D62">
-        <v>0.02715877036565512</v>
+        <v>0.03207078079234849</v>
       </c>
       <c r="E62">
-        <v>0.1012086563765259</v>
+        <v>-0.02331663010307584</v>
       </c>
       <c r="F62">
-        <v>0.09420553830854558</v>
+        <v>0.02502234507688169</v>
       </c>
       <c r="G62">
-        <v>0.2330282727049759</v>
+        <v>0.1596609650191383</v>
       </c>
       <c r="H62">
-        <v>0.04364060134935448</v>
+        <v>0.0557086497025551</v>
       </c>
       <c r="I62">
-        <v>0.0155046413242022</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1217142188246924</v>
+      </c>
+      <c r="J62">
+        <v>-0.1075447488424841</v>
+      </c>
+      <c r="K62">
+        <v>-0.1090076546427236</v>
+      </c>
+      <c r="L62">
+        <v>-0.05819379450261694</v>
+      </c>
+      <c r="M62">
+        <v>0.08367769652872206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.04405025021945057</v>
+        <v>0.04471625214823804</v>
       </c>
       <c r="C63">
-        <v>0.03971363562934458</v>
+        <v>-0.02681728724749032</v>
       </c>
       <c r="D63">
-        <v>0.02446581494106345</v>
+        <v>0.005974907847120343</v>
       </c>
       <c r="E63">
-        <v>-0.01302943192757925</v>
+        <v>-0.008197663474455186</v>
       </c>
       <c r="F63">
-        <v>0.04324619359757827</v>
+        <v>-0.0587439977659279</v>
       </c>
       <c r="G63">
-        <v>0.02261909960464979</v>
+        <v>0.01130931936467573</v>
       </c>
       <c r="H63">
-        <v>-0.04411860830350637</v>
+        <v>0.04059231349678635</v>
       </c>
       <c r="I63">
-        <v>-0.001677185902392794</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>-0.0520335616070477</v>
+      </c>
+      <c r="J63">
+        <v>-0.004246095334687067</v>
+      </c>
+      <c r="K63">
+        <v>-0.0377783836260253</v>
+      </c>
+      <c r="L63">
+        <v>0.02039785346796271</v>
+      </c>
+      <c r="M63">
+        <v>0.004933764804953469</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1018572656562883</v>
+        <v>0.1013608637346402</v>
       </c>
       <c r="C64">
-        <v>0.035785982684788</v>
+        <v>-0.0489633935808851</v>
       </c>
       <c r="D64">
-        <v>0.03975342688041934</v>
+        <v>-0.002040652169049922</v>
       </c>
       <c r="E64">
-        <v>-0.0384624994636879</v>
+        <v>0.03684772511368794</v>
       </c>
       <c r="F64">
-        <v>0.00943169978054483</v>
+        <v>-0.05541668366552904</v>
       </c>
       <c r="G64">
-        <v>-0.02353889003293074</v>
+        <v>0.01124910411426075</v>
       </c>
       <c r="H64">
-        <v>-0.02698050620421517</v>
+        <v>-0.0014763268844249</v>
       </c>
       <c r="I64">
-        <v>0.09072300453414522</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>-0.08288270245510979</v>
+      </c>
+      <c r="J64">
+        <v>-0.002142239684960393</v>
+      </c>
+      <c r="K64">
+        <v>0.01244073895374931</v>
+      </c>
+      <c r="L64">
+        <v>0.04682689385338754</v>
+      </c>
+      <c r="M64">
+        <v>0.04616582697974801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1270831236449828</v>
+        <v>0.1258649620926288</v>
       </c>
       <c r="C65">
-        <v>0.05632504845636622</v>
+        <v>-0.04572518583868191</v>
       </c>
       <c r="D65">
-        <v>0.05960150289600125</v>
+        <v>0.01211933127980359</v>
       </c>
       <c r="E65">
-        <v>-0.1317143239936907</v>
+        <v>0.01324900642265371</v>
       </c>
       <c r="F65">
-        <v>0.03396731937008858</v>
+        <v>-0.04699182302600344</v>
       </c>
       <c r="G65">
-        <v>-0.1458940897161529</v>
+        <v>-0.1808041047936728</v>
       </c>
       <c r="H65">
-        <v>-0.3151368444342671</v>
+        <v>-0.06246042011368234</v>
       </c>
       <c r="I65">
-        <v>-0.5779292963538813</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>-0.2358714138768248</v>
+      </c>
+      <c r="J65">
+        <v>-0.07396052672903197</v>
+      </c>
+      <c r="K65">
+        <v>-0.5839161940499442</v>
+      </c>
+      <c r="L65">
+        <v>-0.2422851531721517</v>
+      </c>
+      <c r="M65">
+        <v>-0.09297545480497954</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1550149346475227</v>
+        <v>0.1255734178886973</v>
       </c>
       <c r="C66">
-        <v>0.1539064044313578</v>
+        <v>-0.1320488295556605</v>
       </c>
       <c r="D66">
-        <v>0.05211949237176992</v>
+        <v>0.1040651887995039</v>
       </c>
       <c r="E66">
-        <v>0.01337162786288872</v>
+        <v>-0.02475413874661817</v>
       </c>
       <c r="F66">
-        <v>-0.04973064956365514</v>
+        <v>-0.1621056095553462</v>
       </c>
       <c r="G66">
-        <v>0.05152112678384566</v>
+        <v>0.09841871334835681</v>
       </c>
       <c r="H66">
-        <v>-0.0051183636203654</v>
+        <v>0.02591133499550252</v>
       </c>
       <c r="I66">
-        <v>0.3711582612845137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>-0.1101196179724974</v>
+      </c>
+      <c r="J66">
+        <v>0.06633523487010019</v>
+      </c>
+      <c r="K66">
+        <v>0.2382853000729546</v>
+      </c>
+      <c r="L66">
+        <v>0.04815978191623093</v>
+      </c>
+      <c r="M66">
+        <v>0.05495078574790026</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.07481668523151036</v>
+        <v>0.08115251745075831</v>
       </c>
       <c r="C67">
-        <v>0.0495379890797206</v>
+        <v>-0.06105843976954854</v>
       </c>
       <c r="D67">
-        <v>0.01126171538472005</v>
+        <v>-0.01854314024666563</v>
       </c>
       <c r="E67">
-        <v>-0.005393160925361039</v>
+        <v>0.0209781406406549</v>
       </c>
       <c r="F67">
-        <v>-0.01596025926541745</v>
+        <v>0.03009082759940635</v>
       </c>
       <c r="G67">
-        <v>-0.001986158992650073</v>
+        <v>0.08917047535760178</v>
       </c>
       <c r="H67">
-        <v>0.04398976761922449</v>
+        <v>-0.08755301035449707</v>
       </c>
       <c r="I67">
-        <v>0.0462492142168115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.03842484215507319</v>
+      </c>
+      <c r="J67">
+        <v>-0.1065437161090904</v>
+      </c>
+      <c r="K67">
+        <v>0.05083937588731484</v>
+      </c>
+      <c r="L67">
+        <v>0.04830438962660191</v>
+      </c>
+      <c r="M67">
+        <v>0.03835005333878579</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.1069455017719656</v>
+        <v>0.1226366064969957</v>
       </c>
       <c r="C68">
-        <v>-0.2680661085665993</v>
+        <v>0.2735380327490332</v>
       </c>
       <c r="D68">
-        <v>-0.007714464972305265</v>
+        <v>0.007300325741069914</v>
       </c>
       <c r="E68">
-        <v>-0.01307959491501494</v>
+        <v>0.001362596669721424</v>
       </c>
       <c r="F68">
-        <v>0.04092774477428743</v>
+        <v>-0.02011755536870702</v>
       </c>
       <c r="G68">
-        <v>0.01077999820149511</v>
+        <v>0.02908785655506795</v>
       </c>
       <c r="H68">
-        <v>0.007258204089761625</v>
+        <v>0.01841706925671056</v>
       </c>
       <c r="I68">
-        <v>-0.02189268282986379</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>-0.0442193517748144</v>
+      </c>
+      <c r="J68">
+        <v>-0.001132253222909335</v>
+      </c>
+      <c r="K68">
+        <v>-0.05802334343119486</v>
+      </c>
+      <c r="L68">
+        <v>0.01081878649144171</v>
+      </c>
+      <c r="M68">
+        <v>0.01431093380102089</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03990157458571771</v>
+        <v>0.0433766862156383</v>
       </c>
       <c r="C69">
-        <v>0.02943685238105057</v>
+        <v>-0.02216700147038795</v>
       </c>
       <c r="D69">
-        <v>0.006403052030147709</v>
+        <v>-0.01229692027885598</v>
       </c>
       <c r="E69">
-        <v>-0.01678176218137623</v>
+        <v>-0.003966562829934486</v>
       </c>
       <c r="F69">
-        <v>-0.01447513239828057</v>
+        <v>-0.01303456594450666</v>
       </c>
       <c r="G69">
-        <v>0.04756895361827485</v>
+        <v>0.04295709836500412</v>
       </c>
       <c r="H69">
-        <v>0.01326535302930719</v>
+        <v>-0.008775364648601106</v>
       </c>
       <c r="I69">
-        <v>-0.02402773285265744</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.004146941923779118</v>
+      </c>
+      <c r="J69">
+        <v>-0.03559465128046328</v>
+      </c>
+      <c r="K69">
+        <v>0.002129616184007152</v>
+      </c>
+      <c r="L69">
+        <v>-0.00261072620533905</v>
+      </c>
+      <c r="M69">
+        <v>-0.05777066935945498</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.04406018571765509</v>
+        <v>0.05249516012371448</v>
       </c>
       <c r="C70">
-        <v>0.005938768391416096</v>
+        <v>-0.0369607129768896</v>
       </c>
       <c r="D70">
-        <v>0.02341685317374573</v>
+        <v>0.02488198797630802</v>
       </c>
       <c r="E70">
-        <v>0.03813123146112747</v>
+        <v>0.009954381083772256</v>
       </c>
       <c r="F70">
-        <v>-0.07304996174661986</v>
+        <v>0.002318716032987466</v>
       </c>
       <c r="G70">
-        <v>-0.1064324736494315</v>
+        <v>-0.07943803268739526</v>
       </c>
       <c r="H70">
-        <v>0.04523778326812505</v>
+        <v>-0.02049148889098565</v>
       </c>
       <c r="I70">
-        <v>-0.02274704324064065</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.08735127356823784</v>
+      </c>
+      <c r="J70">
+        <v>-0.1382791374249732</v>
+      </c>
+      <c r="K70">
+        <v>-0.05077622152838242</v>
+      </c>
+      <c r="L70">
+        <v>0.2689553204723589</v>
+      </c>
+      <c r="M70">
+        <v>-0.1895052636945815</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.1101058033479696</v>
+        <v>0.135923894709797</v>
       </c>
       <c r="C71">
-        <v>-0.2767651504298504</v>
+        <v>0.2811519452167862</v>
       </c>
       <c r="D71">
-        <v>0.02046837423505164</v>
+        <v>0.009943963786983251</v>
       </c>
       <c r="E71">
-        <v>-0.0004721825405170268</v>
+        <v>0.01923547849395085</v>
       </c>
       <c r="F71">
-        <v>0.02378485852770279</v>
+        <v>-0.02534569669284679</v>
       </c>
       <c r="G71">
-        <v>-0.01149212536026493</v>
+        <v>0.03232064983060121</v>
       </c>
       <c r="H71">
-        <v>0.01054225100512328</v>
+        <v>0.01264324288359894</v>
       </c>
       <c r="I71">
-        <v>0.006235995426241709</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>-0.04236457184105305</v>
+      </c>
+      <c r="J71">
+        <v>-0.0100496787182748</v>
+      </c>
+      <c r="K71">
+        <v>-0.006943674143780371</v>
+      </c>
+      <c r="L71">
+        <v>0.002880552603524059</v>
+      </c>
+      <c r="M71">
+        <v>0.007508987949389267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1830925191901539</v>
+        <v>0.1438919390521744</v>
       </c>
       <c r="C72">
-        <v>0.05058444540291555</v>
+        <v>-0.03518735006307774</v>
       </c>
       <c r="D72">
-        <v>-0.2180562334440898</v>
+        <v>-0.001676030748472483</v>
       </c>
       <c r="E72">
-        <v>0.03374439529106381</v>
+        <v>-0.181142577945841</v>
       </c>
       <c r="F72">
-        <v>-0.03181458033946946</v>
+        <v>-0.05492346780985692</v>
       </c>
       <c r="G72">
-        <v>0.03211733075483057</v>
+        <v>0.00953796194317251</v>
       </c>
       <c r="H72">
-        <v>-0.1196807898897483</v>
+        <v>-0.04926242217920285</v>
       </c>
       <c r="I72">
-        <v>-0.06243122567918506</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.00606262757196519</v>
+      </c>
+      <c r="J72">
+        <v>-0.03904070595955293</v>
+      </c>
+      <c r="K72">
+        <v>-0.1288917058216049</v>
+      </c>
+      <c r="L72">
+        <v>-0.1154789749360684</v>
+      </c>
+      <c r="M72">
+        <v>0.007714776551757912</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2644081973412731</v>
+        <v>0.2363876848182071</v>
       </c>
       <c r="C73">
-        <v>0.1863189328796992</v>
+        <v>-0.157420116855001</v>
       </c>
       <c r="D73">
-        <v>0.1552822710019405</v>
+        <v>0.1504700450579735</v>
       </c>
       <c r="E73">
-        <v>0.03686480941404754</v>
+        <v>0.08973320805895833</v>
       </c>
       <c r="F73">
-        <v>0.02327565416363327</v>
+        <v>0.3851215498695205</v>
       </c>
       <c r="G73">
-        <v>-0.1815484023085269</v>
+        <v>-0.1175656157211221</v>
       </c>
       <c r="H73">
-        <v>-0.1874962854002368</v>
+        <v>-0.1991902146137216</v>
       </c>
       <c r="I73">
-        <v>-0.106619899638466</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>-0.3069629091602514</v>
+      </c>
+      <c r="J73">
+        <v>-0.01438830936453971</v>
+      </c>
+      <c r="K73">
+        <v>0.2975295792274404</v>
+      </c>
+      <c r="L73">
+        <v>-0.2729190011804281</v>
+      </c>
+      <c r="M73">
+        <v>0.1354035845220573</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.0896254869425194</v>
+        <v>0.0898358619097048</v>
       </c>
       <c r="C74">
-        <v>0.02996302487709196</v>
+        <v>-0.0684792923960874</v>
       </c>
       <c r="D74">
-        <v>0.02403054451108271</v>
+        <v>0.009156316147684784</v>
       </c>
       <c r="E74">
-        <v>0.01437504585249039</v>
+        <v>-0.005466331440150652</v>
       </c>
       <c r="F74">
-        <v>0.1373452698688475</v>
+        <v>0.03276203814671828</v>
       </c>
       <c r="G74">
-        <v>0.1093385235047785</v>
+        <v>0.1509369823901246</v>
       </c>
       <c r="H74">
-        <v>-0.009599413529452473</v>
+        <v>0.0309590895541819</v>
       </c>
       <c r="I74">
-        <v>-0.03952138797626836</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>-0.005002503305365371</v>
+      </c>
+      <c r="J74">
+        <v>-0.03938295070500926</v>
+      </c>
+      <c r="K74">
+        <v>-0.02495783642826991</v>
+      </c>
+      <c r="L74">
+        <v>-0.04263364193400882</v>
+      </c>
+      <c r="M74">
+        <v>0.04651218643052535</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.1001315514604327</v>
+        <v>0.09149929377958158</v>
       </c>
       <c r="C75">
-        <v>0.01828672934233603</v>
+        <v>-0.04959059065143246</v>
       </c>
       <c r="D75">
-        <v>0.0280983982035927</v>
+        <v>0.008946571483212342</v>
       </c>
       <c r="E75">
-        <v>0.02722612109743044</v>
+        <v>-0.008672858998092019</v>
       </c>
       <c r="F75">
-        <v>0.01667444941281223</v>
+        <v>0.02491192971354846</v>
       </c>
       <c r="G75">
-        <v>0.1130903975487524</v>
+        <v>0.1068066821514097</v>
       </c>
       <c r="H75">
-        <v>0.06632802100434192</v>
+        <v>0.009872347529004344</v>
       </c>
       <c r="I75">
-        <v>-0.08570079752524588</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.09835867760745676</v>
+      </c>
+      <c r="J75">
+        <v>-0.003714964450937089</v>
+      </c>
+      <c r="K75">
+        <v>-0.02590398578298584</v>
+      </c>
+      <c r="L75">
+        <v>-0.01991185773668022</v>
+      </c>
+      <c r="M75">
+        <v>-0.05349243922708365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1269307026013448</v>
+        <v>0.09741614251025034</v>
       </c>
       <c r="C76">
-        <v>0.03718637449599967</v>
+        <v>-0.06940073084589034</v>
       </c>
       <c r="D76">
-        <v>0.02463162528627536</v>
+        <v>0.00562100043631186</v>
       </c>
       <c r="E76">
-        <v>0.003030321792421946</v>
+        <v>0.01203768295034499</v>
       </c>
       <c r="F76">
-        <v>0.1159889313780225</v>
+        <v>0.05703067722677394</v>
       </c>
       <c r="G76">
-        <v>0.2223615877712931</v>
+        <v>0.1968153205123979</v>
       </c>
       <c r="H76">
-        <v>0.04046751472044046</v>
+        <v>0.03508841860594014</v>
       </c>
       <c r="I76">
-        <v>-0.09885593453331984</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.09998634194749183</v>
+      </c>
+      <c r="J76">
+        <v>-0.01943233813458409</v>
+      </c>
+      <c r="K76">
+        <v>-0.07181090364785783</v>
+      </c>
+      <c r="L76">
+        <v>-0.03908514065237911</v>
+      </c>
+      <c r="M76">
+        <v>0.1262575399727492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07653017286825463</v>
+        <v>0.072891303374657</v>
       </c>
       <c r="C77">
-        <v>0.03817811970477043</v>
+        <v>-0.02216666869248288</v>
       </c>
       <c r="D77">
-        <v>-0.04337335902004393</v>
+        <v>0.006198488346954809</v>
       </c>
       <c r="E77">
-        <v>-0.3015230056821464</v>
+        <v>0.03677855280040824</v>
       </c>
       <c r="F77">
-        <v>-0.7065532667325259</v>
+        <v>-0.4945454347281633</v>
       </c>
       <c r="G77">
-        <v>0.3108773022210174</v>
+        <v>-0.1562628205605569</v>
       </c>
       <c r="H77">
-        <v>-0.2526046662766808</v>
+        <v>-0.6711346136372289</v>
       </c>
       <c r="I77">
-        <v>0.09477994182174548</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.2185021330077085</v>
+      </c>
+      <c r="J77">
+        <v>-0.1072271488520004</v>
+      </c>
+      <c r="K77">
+        <v>0.08343611347141622</v>
+      </c>
+      <c r="L77">
+        <v>-0.0757446999410282</v>
+      </c>
+      <c r="M77">
+        <v>0.1794055027172171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1324251791701202</v>
+        <v>0.1722238912759966</v>
       </c>
       <c r="C78">
-        <v>0.09081674163202713</v>
+        <v>-0.1199939663186711</v>
       </c>
       <c r="D78">
-        <v>0.02370918435247898</v>
+        <v>-0.1767202404173542</v>
       </c>
       <c r="E78">
-        <v>-0.148886636924779</v>
+        <v>0.1132033036191146</v>
       </c>
       <c r="F78">
-        <v>0.02101946820142097</v>
+        <v>-0.1230529114246772</v>
       </c>
       <c r="G78">
-        <v>-0.06800415551999818</v>
+        <v>-0.2754651971868518</v>
       </c>
       <c r="H78">
-        <v>0.04013092533587639</v>
+        <v>0.2090664309527897</v>
       </c>
       <c r="I78">
-        <v>0.08736450246949787</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.3641536927285661</v>
+      </c>
+      <c r="J78">
+        <v>0.6594942219437138</v>
+      </c>
+      <c r="K78">
+        <v>-0.003740756940781522</v>
+      </c>
+      <c r="L78">
+        <v>-0.2110615947860796</v>
+      </c>
+      <c r="M78">
+        <v>0.07912411322900476</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1403533439545972</v>
+        <v>0.1349872244222786</v>
       </c>
       <c r="C79">
-        <v>0.05224938988658844</v>
+        <v>-0.07337797302489296</v>
       </c>
       <c r="D79">
-        <v>0.03592092968159542</v>
+        <v>0.003863477199225173</v>
       </c>
       <c r="E79">
-        <v>0.04280669598430678</v>
+        <v>0.005106674740610342</v>
       </c>
       <c r="F79">
-        <v>0.06182390414503566</v>
+        <v>0.005536943292338753</v>
       </c>
       <c r="G79">
-        <v>0.1522530789909822</v>
+        <v>0.1584422313825052</v>
       </c>
       <c r="H79">
-        <v>0.06737759200786994</v>
+        <v>0.02542189640981389</v>
       </c>
       <c r="I79">
-        <v>-0.04560475833789973</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.08574392227765827</v>
+      </c>
+      <c r="J79">
+        <v>-0.0657709236774012</v>
+      </c>
+      <c r="K79">
+        <v>-0.06461246806647986</v>
+      </c>
+      <c r="L79">
+        <v>-0.04171820030974868</v>
+      </c>
+      <c r="M79">
+        <v>0.02319615549676666</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.02584320683141804</v>
+        <v>0.05654785373818203</v>
       </c>
       <c r="C80">
-        <v>-0.001182865469994461</v>
+        <v>-0.02233984239481886</v>
       </c>
       <c r="D80">
-        <v>0.004159498798366389</v>
+        <v>0.06578507588804076</v>
       </c>
       <c r="E80">
-        <v>0.02987132167575178</v>
+        <v>0.006679339549353066</v>
       </c>
       <c r="F80">
-        <v>0.008900462949239478</v>
+        <v>0.004669979757528323</v>
       </c>
       <c r="G80">
-        <v>-0.01513745005902348</v>
+        <v>-0.03164366836470729</v>
       </c>
       <c r="H80">
-        <v>-0.07244764008853834</v>
+        <v>0.08640258897669675</v>
       </c>
       <c r="I80">
-        <v>-0.02370915687121793</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>-0.1085377163743339</v>
+      </c>
+      <c r="J80">
+        <v>0.02847168628022059</v>
+      </c>
+      <c r="K80">
+        <v>-0.02371435884375779</v>
+      </c>
+      <c r="L80">
+        <v>0.07962187985271542</v>
+      </c>
+      <c r="M80">
+        <v>0.0155849824899348</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1136124537700298</v>
+        <v>0.1186343015577294</v>
       </c>
       <c r="C81">
-        <v>0.05212359383869192</v>
+        <v>-0.0514679974508308</v>
       </c>
       <c r="D81">
-        <v>0.04415772297324069</v>
+        <v>0.001470148150598468</v>
       </c>
       <c r="E81">
-        <v>0.0296592784157623</v>
+        <v>0.009364726882708899</v>
       </c>
       <c r="F81">
-        <v>0.04374416617132541</v>
+        <v>-0.005072342439936283</v>
       </c>
       <c r="G81">
-        <v>0.09833167917257275</v>
+        <v>0.14495383109907</v>
       </c>
       <c r="H81">
-        <v>0.02055906631896865</v>
+        <v>0.05778762698966475</v>
       </c>
       <c r="I81">
-        <v>-0.04385740528125748</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.07949149157502486</v>
+      </c>
+      <c r="J81">
+        <v>-0.03750695595357149</v>
+      </c>
+      <c r="K81">
+        <v>0.006963467773997543</v>
+      </c>
+      <c r="L81">
+        <v>-0.01970191231544798</v>
+      </c>
+      <c r="M81">
+        <v>-0.05146557051382358</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1094968046232348</v>
+        <v>0.118013157240041</v>
       </c>
       <c r="C82">
-        <v>0.03166105725013942</v>
+        <v>-0.05238381620493934</v>
       </c>
       <c r="D82">
-        <v>0.066001218665716</v>
+        <v>0.02353006166833006</v>
       </c>
       <c r="E82">
-        <v>0.08434419441732344</v>
+        <v>-0.00191103892298095</v>
       </c>
       <c r="F82">
-        <v>0.1026396481048607</v>
+        <v>0.04121788637333669</v>
       </c>
       <c r="G82">
-        <v>0.2527541782313427</v>
+        <v>0.2260526149238692</v>
       </c>
       <c r="H82">
-        <v>0.08406154510427274</v>
+        <v>0.05658516315067922</v>
       </c>
       <c r="I82">
-        <v>-0.02840494516149785</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.1068938725502897</v>
+      </c>
+      <c r="J82">
+        <v>-0.06715755745824832</v>
+      </c>
+      <c r="K82">
+        <v>-0.01819496911328769</v>
+      </c>
+      <c r="L82">
+        <v>0.03122270302078172</v>
+      </c>
+      <c r="M82">
+        <v>0.03735268252720296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.05099433969925478</v>
+        <v>0.07627161766493838</v>
       </c>
       <c r="C83">
-        <v>0.03270699962174031</v>
+        <v>-0.06385941026567983</v>
       </c>
       <c r="D83">
-        <v>0.03783413963385569</v>
+        <v>0.01578249228079789</v>
       </c>
       <c r="E83">
-        <v>0.02727870237622666</v>
+        <v>0.008339902297173976</v>
       </c>
       <c r="F83">
-        <v>-0.05904676554819818</v>
+        <v>0.007203880004020102</v>
       </c>
       <c r="G83">
-        <v>-0.07894125046138488</v>
+        <v>0.01975661880391127</v>
       </c>
       <c r="H83">
-        <v>0.04011147345705673</v>
+        <v>-0.04621322075148731</v>
       </c>
       <c r="I83">
-        <v>0.06214011346036576</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>-0.04752455552053872</v>
+      </c>
+      <c r="J83">
+        <v>0.005742459127285001</v>
+      </c>
+      <c r="K83">
+        <v>0.02341345094626056</v>
+      </c>
+      <c r="L83">
+        <v>0.1374338768809956</v>
+      </c>
+      <c r="M83">
+        <v>-0.03918355085335699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05169641560906259</v>
+        <v>0.0441947229489083</v>
       </c>
       <c r="C84">
-        <v>0.03181898352122607</v>
+        <v>0.0207403363106111</v>
       </c>
       <c r="D84">
-        <v>-0.02469496922924352</v>
+        <v>0.003576518716147313</v>
       </c>
       <c r="E84">
-        <v>0.006358241593364957</v>
+        <v>-0.02036682923476915</v>
       </c>
       <c r="F84">
-        <v>0.1248345406538429</v>
+        <v>-0.01292650341276931</v>
       </c>
       <c r="G84">
-        <v>-0.03778554017733465</v>
+        <v>-0.2128667832339775</v>
       </c>
       <c r="H84">
-        <v>0.03162266495838579</v>
+        <v>0.2235762115391823</v>
       </c>
       <c r="I84">
-        <v>0.03677521539869492</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>-0.05975149646707268</v>
+      </c>
+      <c r="J84">
+        <v>-0.04594816002659822</v>
+      </c>
+      <c r="K84">
+        <v>0.06473507772490643</v>
+      </c>
+      <c r="L84">
+        <v>0.1419257156866347</v>
+      </c>
+      <c r="M84">
+        <v>0.54576518932773</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.07896620865520504</v>
+        <v>0.1081453508403989</v>
       </c>
       <c r="C85">
-        <v>0.04204471477443849</v>
+        <v>-0.05157295042401906</v>
       </c>
       <c r="D85">
-        <v>0.05853768928946341</v>
+        <v>0.01542802674014558</v>
       </c>
       <c r="E85">
-        <v>0.006605841934922296</v>
+        <v>0.03380187913667814</v>
       </c>
       <c r="F85">
-        <v>0.07866215549645432</v>
+        <v>0.001648351948452274</v>
       </c>
       <c r="G85">
-        <v>0.1764751930944453</v>
+        <v>0.1670648552723591</v>
       </c>
       <c r="H85">
-        <v>0.01207774665575239</v>
+        <v>0.0359460050798914</v>
       </c>
       <c r="I85">
-        <v>-0.04694888375447154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.08205394854210782</v>
+      </c>
+      <c r="J85">
+        <v>-0.0626577072024032</v>
+      </c>
+      <c r="K85">
+        <v>-0.05696091266264756</v>
+      </c>
+      <c r="L85">
+        <v>-0.0568328843772996</v>
+      </c>
+      <c r="M85">
+        <v>0.008336958842699941</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.041280286575591</v>
+        <v>0.0695747180438767</v>
       </c>
       <c r="C86">
-        <v>0.04590040482016078</v>
+        <v>-0.01960942320556309</v>
       </c>
       <c r="D86">
-        <v>0.01075581542982507</v>
+        <v>-0.01268709753330043</v>
       </c>
       <c r="E86">
-        <v>-0.04061246956838677</v>
+        <v>0.08783678400409062</v>
       </c>
       <c r="F86">
-        <v>-0.05849104221704147</v>
+        <v>-0.05502500402929095</v>
       </c>
       <c r="G86">
-        <v>-0.02239806154986731</v>
+        <v>-0.4061595546410288</v>
       </c>
       <c r="H86">
-        <v>-0.08067218019565374</v>
+        <v>0.4134423710159164</v>
       </c>
       <c r="I86">
-        <v>-0.06236820911335981</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.2761606799814003</v>
+      </c>
+      <c r="J86">
+        <v>-0.520590168765095</v>
+      </c>
+      <c r="K86">
+        <v>0.1597990805592578</v>
+      </c>
+      <c r="L86">
+        <v>-0.1951822143889506</v>
+      </c>
+      <c r="M86">
+        <v>-0.02384415160191469</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.0884862032111448</v>
+        <v>0.1100773933462735</v>
       </c>
       <c r="C87">
-        <v>0.0666733484081625</v>
+        <v>-0.06587860507871271</v>
       </c>
       <c r="D87">
-        <v>0.009317496122428734</v>
+        <v>-0.03920490687776149</v>
       </c>
       <c r="E87">
-        <v>-0.1367892594769365</v>
+        <v>0.03553956746099939</v>
       </c>
       <c r="F87">
-        <v>-0.1389647940505413</v>
+        <v>-0.1612533533789577</v>
       </c>
       <c r="G87">
-        <v>0.04441873944088707</v>
+        <v>-0.09062254377024843</v>
       </c>
       <c r="H87">
-        <v>-0.04876925935685677</v>
+        <v>-0.1367483177585208</v>
       </c>
       <c r="I87">
-        <v>0.1080831516774658</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>-0.01435175693104598</v>
+      </c>
+      <c r="J87">
+        <v>-0.06865131195977228</v>
+      </c>
+      <c r="K87">
+        <v>0.01183062566353308</v>
+      </c>
+      <c r="L87">
+        <v>0.1041041286343827</v>
+      </c>
+      <c r="M87">
+        <v>0.06998975992304612</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.04535923578209445</v>
+        <v>0.05723420391355567</v>
       </c>
       <c r="C88">
-        <v>0.04082627766584184</v>
+        <v>-0.05249160621040245</v>
       </c>
       <c r="D88">
-        <v>0.0177701831768455</v>
+        <v>0.02924246026036832</v>
       </c>
       <c r="E88">
-        <v>-0.003485200303008183</v>
+        <v>0.01452099576725887</v>
       </c>
       <c r="F88">
-        <v>-0.007814535039621135</v>
+        <v>-0.02591851436702147</v>
       </c>
       <c r="G88">
-        <v>-0.01331621559815713</v>
+        <v>0.02911074394429263</v>
       </c>
       <c r="H88">
-        <v>-0.003603928079283778</v>
+        <v>0.02280160337512697</v>
       </c>
       <c r="I88">
-        <v>0.04531966701591476</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>-0.03905806952620997</v>
+      </c>
+      <c r="J88">
+        <v>-0.007806528283988493</v>
+      </c>
+      <c r="K88">
+        <v>0.03130190139128358</v>
+      </c>
+      <c r="L88">
+        <v>0.01928989195608977</v>
+      </c>
+      <c r="M88">
+        <v>-0.02293769736263736</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.177515472365223</v>
+        <v>0.2173095772320732</v>
       </c>
       <c r="C89">
-        <v>-0.3145849960017449</v>
+        <v>0.3562187161555738</v>
       </c>
       <c r="D89">
-        <v>0.05990397925891659</v>
+        <v>-0.04284688198738892</v>
       </c>
       <c r="E89">
-        <v>-0.08571967149671024</v>
+        <v>0.08123459074518011</v>
       </c>
       <c r="F89">
-        <v>-0.0143583325852736</v>
+        <v>-0.009558188307983658</v>
       </c>
       <c r="G89">
-        <v>-0.03239027229651174</v>
+        <v>0.008988940367959041</v>
       </c>
       <c r="H89">
-        <v>0.01888163152653843</v>
+        <v>0.02209816353904686</v>
       </c>
       <c r="I89">
-        <v>-0.01213606595977827</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>-0.01409288787212652</v>
+      </c>
+      <c r="J89">
+        <v>0.03095885871441669</v>
+      </c>
+      <c r="K89">
+        <v>0.06742077624048116</v>
+      </c>
+      <c r="L89">
+        <v>0.02315732495935416</v>
+      </c>
+      <c r="M89">
+        <v>-0.1025902966887222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1336021337460391</v>
+        <v>0.1495148893190258</v>
       </c>
       <c r="C90">
-        <v>-0.2734110210276788</v>
+        <v>0.2699882069268525</v>
       </c>
       <c r="D90">
-        <v>-0.001435287525486808</v>
+        <v>0.007358018032924458</v>
       </c>
       <c r="E90">
-        <v>-0.05499363484924458</v>
+        <v>0.01852072760051928</v>
       </c>
       <c r="F90">
-        <v>-0.03273299243923455</v>
+        <v>-0.03135602378742289</v>
       </c>
       <c r="G90">
-        <v>-0.02452220127849767</v>
+        <v>-0.001859358886898724</v>
       </c>
       <c r="H90">
-        <v>-0.04955293141495051</v>
+        <v>-0.01616351703134373</v>
       </c>
       <c r="I90">
-        <v>0.1005254563341826</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>-0.0666259214491268</v>
+      </c>
+      <c r="J90">
+        <v>0.0073140562765025</v>
+      </c>
+      <c r="K90">
+        <v>0.0285539932111827</v>
+      </c>
+      <c r="L90">
+        <v>-7.800312958518533e-06</v>
+      </c>
+      <c r="M90">
+        <v>0.03731298079313169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08165258202017349</v>
+        <v>0.07696786204881972</v>
       </c>
       <c r="C91">
-        <v>0.02953985668642793</v>
+        <v>-0.05104800754663236</v>
       </c>
       <c r="D91">
-        <v>0.01565884589488261</v>
+        <v>-0.009897069863710323</v>
       </c>
       <c r="E91">
-        <v>-0.01477643226392069</v>
+        <v>0.008371335160044353</v>
       </c>
       <c r="F91">
-        <v>0.05401025966474118</v>
+        <v>0.01572863571898711</v>
       </c>
       <c r="G91">
-        <v>0.09189960375874641</v>
+        <v>0.08294793379465064</v>
       </c>
       <c r="H91">
-        <v>0.03772186955300625</v>
+        <v>0.02108466756052057</v>
       </c>
       <c r="I91">
-        <v>-0.05274231358447107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.06398963347227636</v>
+      </c>
+      <c r="J91">
+        <v>-0.000587483857293478</v>
+      </c>
+      <c r="K91">
+        <v>-0.006051627500625632</v>
+      </c>
+      <c r="L91">
+        <v>-0.03290997588992424</v>
+      </c>
+      <c r="M91">
+        <v>0.0004750737608119635</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1514370279533734</v>
+        <v>0.1649211645582665</v>
       </c>
       <c r="C92">
-        <v>-0.3039179060094279</v>
+        <v>0.3040669986309941</v>
       </c>
       <c r="D92">
-        <v>0.04002307306854478</v>
+        <v>-0.02903517654352844</v>
       </c>
       <c r="E92">
-        <v>-0.03339605039588486</v>
+        <v>0.04768120481838657</v>
       </c>
       <c r="F92">
-        <v>0.05528697223721877</v>
+        <v>-0.005663817471067983</v>
       </c>
       <c r="G92">
-        <v>-0.04480827996009057</v>
+        <v>0.03152988179058742</v>
       </c>
       <c r="H92">
-        <v>0.03186337073364292</v>
+        <v>0.01983146089046349</v>
       </c>
       <c r="I92">
-        <v>-0.007993602519276263</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>-0.01582423754563453</v>
+      </c>
+      <c r="J92">
+        <v>0.03441220940719607</v>
+      </c>
+      <c r="K92">
+        <v>0.02210845608638783</v>
+      </c>
+      <c r="L92">
+        <v>-0.001367414757488716</v>
+      </c>
+      <c r="M92">
+        <v>-0.03734237105512846</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.145359287141301</v>
+        <v>0.1637133919254458</v>
       </c>
       <c r="C93">
-        <v>-0.246779311290612</v>
+        <v>0.2878984940859076</v>
       </c>
       <c r="D93">
-        <v>0.01115464166029793</v>
+        <v>0.02734788661719691</v>
       </c>
       <c r="E93">
-        <v>-0.02414386371471057</v>
+        <v>0.007390661130610462</v>
       </c>
       <c r="F93">
-        <v>-0.01575323637533428</v>
+        <v>-0.008792668767790654</v>
       </c>
       <c r="G93">
-        <v>-0.04652307971748989</v>
+        <v>-0.0119530559878815</v>
       </c>
       <c r="H93">
-        <v>-0.005790881822781589</v>
+        <v>0.02188979041485442</v>
       </c>
       <c r="I93">
-        <v>0.03077496957567597</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>-0.01854776290428629</v>
+      </c>
+      <c r="J93">
+        <v>-0.03403483029704736</v>
+      </c>
+      <c r="K93">
+        <v>0.007144604545273157</v>
+      </c>
+      <c r="L93">
+        <v>0.02483160785689751</v>
+      </c>
+      <c r="M93">
+        <v>0.01787362762642883</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.08740426659601029</v>
+        <v>0.1067441884161902</v>
       </c>
       <c r="C94">
-        <v>0.06007268418979886</v>
+        <v>-0.07579448468070149</v>
       </c>
       <c r="D94">
-        <v>0.01882231290053245</v>
+        <v>-0.01144421240421488</v>
       </c>
       <c r="E94">
-        <v>-0.004853823306737195</v>
+        <v>0.01605244525890327</v>
       </c>
       <c r="F94">
-        <v>0.06646544792148995</v>
+        <v>0.04020582109961051</v>
       </c>
       <c r="G94">
-        <v>0.1299651159108326</v>
+        <v>0.1230919575049925</v>
       </c>
       <c r="H94">
-        <v>0.08360584980697468</v>
+        <v>0.031188300858438</v>
       </c>
       <c r="I94">
-        <v>-0.1152396246693722</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.06044646467959908</v>
+      </c>
+      <c r="J94">
+        <v>0.006711564355509047</v>
+      </c>
+      <c r="K94">
+        <v>-0.01962533542392636</v>
+      </c>
+      <c r="L94">
+        <v>-0.03780837766318593</v>
+      </c>
+      <c r="M94">
+        <v>-0.04263236329801635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1012584450943394</v>
+        <v>0.1336926917547639</v>
       </c>
       <c r="C95">
-        <v>0.08105939022722984</v>
+        <v>-0.06882864831336437</v>
       </c>
       <c r="D95">
-        <v>0.0971427172455946</v>
+        <v>-0.01069220902348648</v>
       </c>
       <c r="E95">
-        <v>-0.0164283522624506</v>
+        <v>0.0719324864427603</v>
       </c>
       <c r="F95">
-        <v>0.01095828795342722</v>
+        <v>-0.0567737364202177</v>
       </c>
       <c r="G95">
-        <v>-0.05343223172009607</v>
+        <v>-0.1892932986321305</v>
       </c>
       <c r="H95">
-        <v>-0.05062185339467103</v>
+        <v>0.07917791757594166</v>
       </c>
       <c r="I95">
-        <v>0.03336400730618636</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>-0.145000222466916</v>
+      </c>
+      <c r="J95">
+        <v>-0.1679723405305329</v>
+      </c>
+      <c r="K95">
+        <v>0.05446024826336265</v>
+      </c>
+      <c r="L95">
+        <v>-0.01409011287258651</v>
+      </c>
+      <c r="M95">
+        <v>-0.2091682591968445</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3490,97 +4642,145 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2998334173677638</v>
+        <v>0.1699035803831882</v>
       </c>
       <c r="C97">
-        <v>0.07193757144468166</v>
+        <v>-0.006670240609365512</v>
       </c>
       <c r="D97">
-        <v>-0.8635204068994451</v>
+        <v>-0.1008028963398545</v>
       </c>
       <c r="E97">
-        <v>0.1887092847157731</v>
+        <v>-0.9355011267811584</v>
       </c>
       <c r="F97">
-        <v>0.005322828361891681</v>
+        <v>-0.02951741013974505</v>
       </c>
       <c r="G97">
-        <v>-0.08994347310796798</v>
+        <v>-0.1042365406162815</v>
       </c>
       <c r="H97">
-        <v>-0.07403241561436504</v>
+        <v>0.03942690534047009</v>
       </c>
       <c r="I97">
-        <v>0.004209041631429593</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>-0.01315856593708643</v>
+      </c>
+      <c r="J97">
+        <v>0.01584720959806804</v>
+      </c>
+      <c r="K97">
+        <v>0.06042082261155515</v>
+      </c>
+      <c r="L97">
+        <v>-0.01680358768263189</v>
+      </c>
+      <c r="M97">
+        <v>-0.0271245538110176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2675701539274953</v>
+        <v>0.2618854789153975</v>
       </c>
       <c r="C98">
-        <v>0.1000132493084577</v>
+        <v>-0.1197388063512225</v>
       </c>
       <c r="D98">
-        <v>0.1802933418089607</v>
+        <v>0.01030189244660101</v>
       </c>
       <c r="E98">
-        <v>0.2914444645869181</v>
+        <v>0.02290242855519965</v>
       </c>
       <c r="F98">
-        <v>-0.1380600369294911</v>
+        <v>0.4130390655352606</v>
       </c>
       <c r="G98">
-        <v>-0.4953866896034499</v>
+        <v>-0.2723561341407707</v>
       </c>
       <c r="H98">
-        <v>0.2726256072131822</v>
+        <v>-0.1889474842937868</v>
       </c>
       <c r="I98">
-        <v>0.1464560698538388</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.2055245211779083</v>
+      </c>
+      <c r="J98">
+        <v>0.1240594718891922</v>
+      </c>
+      <c r="K98">
+        <v>-0.1338608864583476</v>
+      </c>
+      <c r="L98">
+        <v>0.5788215363169469</v>
+      </c>
+      <c r="M98">
+        <v>-0.002697665461852868</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.05327468976733737</v>
+        <v>0.06807385242299067</v>
       </c>
       <c r="C99">
-        <v>0.03915005219452715</v>
+        <v>-0.05095411285883848</v>
       </c>
       <c r="D99">
-        <v>-0.02364870306273823</v>
+        <v>-0.02195369001840507</v>
       </c>
       <c r="E99">
-        <v>0.06441615964046979</v>
+        <v>0.004611635258340933</v>
       </c>
       <c r="F99">
-        <v>-0.4387294644505626</v>
+        <v>0.009199709726029195</v>
       </c>
       <c r="G99">
-        <v>0.07684954522640117</v>
+        <v>0.03363272796798073</v>
       </c>
       <c r="H99">
-        <v>0.6634888240215387</v>
+        <v>-0.1125447338807187</v>
       </c>
       <c r="I99">
-        <v>-0.36557074270911</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.3086814945738532</v>
+      </c>
+      <c r="J99">
+        <v>-0.08199761344562538</v>
+      </c>
+      <c r="K99">
+        <v>0.171473576536254</v>
+      </c>
+      <c r="L99">
+        <v>0.02023876348697302</v>
+      </c>
+      <c r="M99">
+        <v>-0.5323428125300189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3606,39 +4806,63 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.04674262043852133</v>
+        <v>0.04484688100363234</v>
       </c>
       <c r="C101">
-        <v>0.01643501033851124</v>
+        <v>-0.02277658036709075</v>
       </c>
       <c r="D101">
-        <v>0.01268761000148934</v>
+        <v>-0.0005292330868893997</v>
       </c>
       <c r="E101">
-        <v>-0.02351493382103573</v>
+        <v>0.02290503878541425</v>
       </c>
       <c r="F101">
-        <v>0.02029017791643005</v>
+        <v>-0.0446413848469141</v>
       </c>
       <c r="G101">
-        <v>-0.007592012970576635</v>
+        <v>0.03533277406494202</v>
       </c>
       <c r="H101">
-        <v>-0.02839088090457413</v>
+        <v>0.0573926117508559</v>
       </c>
       <c r="I101">
-        <v>-0.0006330272020220246</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>-0.01695016383070643</v>
+      </c>
+      <c r="J101">
+        <v>-0.02573003074303977</v>
+      </c>
+      <c r="K101">
+        <v>-0.039478699104493</v>
+      </c>
+      <c r="L101">
+        <v>0.03936369853506366</v>
+      </c>
+      <c r="M101">
+        <v>0.01952744313730145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3664,10 +4888,22 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3693,10 +4929,22 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3720,6 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
